--- a/R/benchmark-models/ar1/ar1-results.xlsx
+++ b/R/benchmark-models/ar1/ar1-results.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="11">
   <si>
     <t>Here we used AR(1) models to perform 1-step ahead forecasts (expanding window). Estimation is done by OLS and an intercept is used. The first column of each sheet contains the sample that was used for estimation.</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>true.value</t>
-  </si>
-  <si>
-    <t>squared.fcast.error</t>
   </si>
   <si>
     <t>(1960, 2010)</t>
@@ -182,128 +179,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.015642986200256847</v>
+        <v>0.018080095301904343</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9917737902630611</v>
+        <v>-0.19725698784975612</v>
       </c>
       <c r="D2" t="n">
-        <v>5.362051350251151</v>
+        <v>0.012249415007290392</v>
       </c>
       <c r="E2" t="n">
-        <v>5.4232210258390685</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003741729211531087</v>
+        <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01600147484176794</v>
+        <v>0.018424820392673222</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9955231922979813</v>
+        <v>-0.19346169425811158</v>
       </c>
       <c r="D3" t="n">
-        <v>5.41494378302261</v>
+        <v>0.01214366278087205</v>
       </c>
       <c r="E3" t="n">
-        <v>5.463402815565161</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0023482778349599434</v>
+        <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01650652867518876</v>
+        <v>0.018874805735385997</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0002262103705357</v>
+        <v>-0.1872409630697791</v>
       </c>
       <c r="D4" t="n">
-        <v>5.481145222615644</v>
+        <v>0.011351128746667178</v>
       </c>
       <c r="E4" t="n">
-        <v>5.006117958950875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.22565090122483797</v>
+        <v>-0.45728485683796105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0075417508873114455</v>
+        <v>0.012317083850440247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9167478614252188</v>
+        <v>-0.33595873861289716</v>
       </c>
       <c r="D5" t="n">
-        <v>4.596889683797907</v>
+        <v>0.16594592754050091</v>
       </c>
       <c r="E5" t="n">
-        <v>5.01606828928023</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.17571070329410463</v>
+        <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.007571717539737324</v>
+        <v>0.007513258784119232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9167680140688491</v>
+        <v>-0.09002363550216202</v>
       </c>
       <c r="D6" t="n">
-        <v>4.606142681536903</v>
+        <v>0.006617493826267811</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0629518756801675</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.208674639853819</v>
+        <v>0.04688358589885411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008217930848452844</v>
+        <v>0.008256494457397862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9171429856622876</v>
+        <v>-0.08970393162814622</v>
       </c>
       <c r="D7" t="n">
-        <v>4.65166873037424</v>
+        <v>0.004050852473444734</v>
       </c>
       <c r="E7" t="n">
-        <v>5.106968761072724</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2072981179540405</v>
+        <v>0.04401688541677462</v>
       </c>
     </row>
   </sheetData>
@@ -333,128 +309,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03376354388136847</v>
+        <v>0.026745880036048116</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0484441242024343</v>
+        <v>0.20292656081907556</v>
       </c>
       <c r="D2" t="n">
-        <v>6.570130156817906</v>
+        <v>0.052621719582936974</v>
       </c>
       <c r="E2" t="n">
-        <v>6.235348534269807</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.11207873479593773</v>
+        <v>9.995003330853791E-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03287569592135663</v>
+        <v>0.02616404371373231</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0388834068535608</v>
+        <v>0.1890972607626688</v>
       </c>
       <c r="D3" t="n">
-        <v>6.510675824122931</v>
+        <v>0.026353046488850132</v>
       </c>
       <c r="E3" t="n">
-        <v>6.320608378227287</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.03612563398929354</v>
+        <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03394173707582949</v>
+        <v>0.027483161593280122</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0394201045435938</v>
+        <v>0.18396394856790219</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6037091583519505</v>
+        <v>0.043167899140756805</v>
       </c>
       <c r="E4" t="n">
-        <v>6.376043085206266</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.051831840861576085</v>
+        <v>0.05543470688809826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03431241368734622</v>
+        <v>0.027659996245965636</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0370323431396817</v>
+        <v>0.1857543982743225</v>
       </c>
       <c r="D5" t="n">
-        <v>6.646475314298366</v>
+        <v>0.03795723686747777</v>
       </c>
       <c r="E5" t="n">
-        <v>6.442766717236756</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.041497192516809264</v>
+        <v>0.06672363204290921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03491204048937753</v>
+        <v>0.028143734561038636</v>
       </c>
       <c r="C6" t="n">
-        <v>1.035836352836497</v>
+        <v>0.1875209081565882</v>
       </c>
       <c r="D6" t="n">
-        <v>6.70856401904827</v>
+        <v>0.040655810637231</v>
       </c>
       <c r="E6" t="n">
-        <v>6.460606635333811</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.06148286413851939</v>
+        <v>0.017839918128331078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03448406430414161</v>
+        <v>0.027791787942751927</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0311190465601203</v>
+        <v>0.18544712587807557</v>
       </c>
       <c r="D7" t="n">
-        <v>6.6961386183295275</v>
+        <v>0.031100149485551103</v>
       </c>
       <c r="E7" t="n">
-        <v>6.38803594247207</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.09492725887052575</v>
+        <v>-0.07257069283483553</v>
       </c>
     </row>
   </sheetData>
@@ -484,128 +439,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03032366651856076</v>
+        <v>0.02990308329010311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9858921629691306</v>
+        <v>0.04017250228247482</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0746677220096785</v>
+        <v>0.03077729686836603</v>
       </c>
       <c r="E2" t="n">
-        <v>6.1565046500130025</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0066972827850212335</v>
+        <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.030232487902350735</v>
+        <v>0.02977646013399124</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9861530863584543</v>
+        <v>0.040973206441474064</v>
       </c>
       <c r="D3" t="n">
-        <v>6.101488549692848</v>
+        <v>0.030828150020408198</v>
       </c>
       <c r="E3" t="n">
-        <v>6.186063452252489</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007152914142972649</v>
+        <v>0.029558802241544058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03022153465919652</v>
+        <v>0.029748287944908445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9866196831604621</v>
+        <v>0.04108113536862468</v>
       </c>
       <c r="D4" t="n">
-        <v>6.133513497931061</v>
+        <v>0.030962597101127722</v>
       </c>
       <c r="E4" t="n">
-        <v>6.220464878950932</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007560542661262897</v>
+        <v>0.034401426717332484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.030304784532852104</v>
+        <v>0.029815996670841848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9873274654673198</v>
+        <v>0.04102925069425711</v>
       </c>
       <c r="D5" t="n">
-        <v>6.171940607495954</v>
+        <v>0.031227461431867398</v>
       </c>
       <c r="E5" t="n">
-        <v>6.241247418264912</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.00480343401896413</v>
+        <v>0.02078253918252848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03012646995970567</v>
+        <v>0.029641274444414636</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9873077504037369</v>
+        <v>0.040295858667519724</v>
       </c>
       <c r="D6" t="n">
-        <v>6.192158418199967</v>
+        <v>0.030478724706065996</v>
       </c>
       <c r="E6" t="n">
-        <v>6.251197749133505</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0034856425970797873</v>
+        <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02975312863031018</v>
+        <v>0.02915540087789335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9867580586851193</v>
+        <v>0.04378516750139305</v>
       </c>
       <c r="D7" t="n">
-        <v>6.198172884022076</v>
+        <v>0.029591077780993544</v>
       </c>
       <c r="E7" t="n">
-        <v>6.272959240900679</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.005592999175173857</v>
+        <v>0.021761491781513875</v>
       </c>
     </row>
   </sheetData>
@@ -635,128 +569,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006047256802995761</v>
+        <v>0.006957330985126034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9452323852437613</v>
+        <v>0.34387317771473075</v>
       </c>
       <c r="D2" t="n">
-        <v>4.649881402267839</v>
+        <v>0.03054455215472865</v>
       </c>
       <c r="E2" t="n">
-        <v>4.979625705626451</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.10873130559745622</v>
+        <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007179257412356324</v>
+        <v>0.007602590309811159</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9485520784777474</v>
+        <v>0.3565989101152116</v>
       </c>
       <c r="D3" t="n">
-        <v>4.730613570525546</v>
+        <v>0.03139616477524036</v>
       </c>
       <c r="E3" t="n">
-        <v>5.049151768305852</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.10146658344512542</v>
+        <v>0.06952606264861316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008338945210437758</v>
+        <v>0.008258442373655823</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9543274376276228</v>
+        <v>0.36910090933944867</v>
       </c>
       <c r="D4" t="n">
-        <v>4.826883014450742</v>
+        <v>0.03392057532005042</v>
       </c>
       <c r="E4" t="n">
-        <v>5.130731755422432</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09232405739008097</v>
+        <v>0.08157998699242341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.009708805200141779</v>
+        <v>0.009040749406132066</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9636681359611412</v>
+        <v>0.3848210343637029</v>
       </c>
       <c r="D5" t="n">
-        <v>4.954031512064711</v>
+        <v>0.04043444438393387</v>
       </c>
       <c r="E5" t="n">
-        <v>5.221486118488422</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0715319664972622</v>
+        <v>0.09075436326846287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.011247251304104467</v>
+        <v>0.0098021088563331</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9767898548411654</v>
+        <v>0.4037871624153072</v>
       </c>
       <c r="D6" t="n">
-        <v>5.111541919037571</v>
+        <v>0.04644755567731371</v>
       </c>
       <c r="E6" t="n">
-        <v>5.2882097507712436</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.031211522769477144</v>
+        <v>0.06672363204291099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.012319669936549421</v>
+        <v>0.010084175424183491</v>
       </c>
       <c r="C7" t="n">
-        <v>0.987731639844548</v>
+        <v>0.4119720582365045</v>
       </c>
       <c r="D7" t="n">
-        <v>5.235651758907759</v>
+        <v>0.03757244744991671</v>
       </c>
       <c r="E7" t="n">
-        <v>5.311926277321478</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.005817802159244863</v>
+        <v>0.023716526617312716</v>
       </c>
     </row>
   </sheetData>
@@ -786,128 +699,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041587542149296795</v>
+        <v>0.021463193619440733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9863424468906759</v>
+        <v>0.47811537865993603</v>
       </c>
       <c r="D2" t="n">
-        <v>6.6477575203646255</v>
+        <v>0.061787993739457814</v>
       </c>
       <c r="E2" t="n">
-        <v>6.731078174691912</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.006942331437527116</v>
+        <v>0.033434776086236795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.041428355071859886</v>
+        <v>0.021234827881841625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9865790093993476</v>
+        <v>0.4700221181723676</v>
       </c>
       <c r="D3" t="n">
-        <v>6.682168792848975</v>
+        <v>0.03694991215851347</v>
       </c>
       <c r="E3" t="n">
-        <v>6.768373959480901</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.007431330754038226</v>
+        <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04135206685291877</v>
+        <v>0.021242408322469385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869927725569869</v>
+        <v>0.47000295935314884</v>
       </c>
       <c r="D4" t="n">
-        <v>6.721688246823485</v>
+        <v>0.038771537523404995</v>
       </c>
       <c r="E4" t="n">
-        <v>6.801808735532451</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.006419292710963644</v>
+        <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.041203394290901835</v>
+        <v>0.02113336276032421</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9872171078419805</v>
+        <v>0.4701571786636324</v>
       </c>
       <c r="D5" t="n">
-        <v>6.756065342277567</v>
+        <v>0.03685296275428</v>
       </c>
       <c r="E5" t="n">
-        <v>6.867596476064208</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.012439193803733746</v>
+        <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.041679559117029405</v>
+        <v>0.02174377398591994</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9888521403793159</v>
+        <v>0.46860161223987085</v>
       </c>
       <c r="D6" t="n">
-        <v>6.8327170337345695</v>
+        <v>0.052572015267646335</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8932642228608785</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0036659621110970266</v>
+        <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04138354527047127</v>
+        <v>0.02142556350073001</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9886656908413729</v>
+        <v>0.4643049408471651</v>
       </c>
       <c r="D7" t="n">
-        <v>6.856517380317341</v>
+        <v>0.03334322513650852</v>
       </c>
       <c r="E7" t="n">
-        <v>6.87408140338629</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.0849490636656083E-4</v>
+        <v>-0.019182819416773356</v>
       </c>
     </row>
   </sheetData>
@@ -937,128 +829,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.018859922279665244</v>
+        <v>0.006725910277128835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9762867381621284</v>
+        <v>0.6787893077172223</v>
       </c>
       <c r="D2" t="n">
-        <v>5.445545359769203</v>
+        <v>0.030077230903070504</v>
       </c>
       <c r="E2" t="n">
-        <v>5.602512381800825</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.024638646005475617</v>
+        <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01938544652992826</v>
+        <v>0.006924083718800841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9815374737848467</v>
+        <v>0.6830176465494615</v>
       </c>
       <c r="D3" t="n">
-        <v>5.518461296611034</v>
+        <v>0.03698839320460356</v>
       </c>
       <c r="E3" t="n">
-        <v>5.649395967882697</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01714388814101846</v>
+        <v>0.04688358589885322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.019953484911696875</v>
+        <v>0.007025594704063552</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9869073856745322</v>
+        <v>0.6877483522843759</v>
       </c>
       <c r="D4" t="n">
-        <v>5.5953840902150525</v>
+        <v>0.039269703655182855</v>
       </c>
       <c r="E4" t="n">
-        <v>5.698186131968328</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01056825978864212</v>
+        <v>0.04879016416943127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.020542117121726853</v>
+        <v>0.007109945031299902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9921542294211484</v>
+        <v>0.6926651467050975</v>
       </c>
       <c r="D5" t="n">
-        <v>5.674021587983037</v>
+        <v>0.0409051912534848</v>
       </c>
       <c r="E5" t="n">
-        <v>5.756455040161874</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006795274038120537</v>
+        <v>0.05826890812397334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.021301350386863507</v>
+        <v>0.007246192178413476</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9982943286932333</v>
+        <v>0.7019446252989948</v>
       </c>
       <c r="D6" t="n">
-        <v>5.767937770358041</v>
+        <v>0.048147739058077496</v>
       </c>
       <c r="E6" t="n">
-        <v>5.819429839390072</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002651433173199385</v>
+        <v>0.06297479916139093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.022129945303156498</v>
+        <v>0.00730485940178805</v>
       </c>
       <c r="C7" t="n">
-        <v>1.004479745889583</v>
+        <v>0.7120715977850568</v>
       </c>
       <c r="D7" t="n">
-        <v>5.867629351595953</v>
+        <v>0.05214742526083274</v>
       </c>
       <c r="E7" t="n">
-        <v>5.880524938602954</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1.6629616425512434E-4</v>
+        <v>0.06109509935980828</v>
       </c>
     </row>
   </sheetData>
@@ -1088,128 +959,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0509542161652505</v>
+        <v>0.02479423328770069</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9964740534736451</v>
+        <v>0.5171616229891947</v>
       </c>
       <c r="D2" t="n">
-        <v>7.18298907088667</v>
+        <v>0.050518934262898836</v>
       </c>
       <c r="E2" t="n">
-        <v>7.175110927280113</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.206514668553017E-5</v>
+        <v>0.017839918128332855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.050275865171875225</v>
+        <v>0.024078980161001257</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9952595239443689</v>
+        <v>0.5183698982156368</v>
       </c>
       <c r="D3" t="n">
-        <v>7.19137335090472</v>
+        <v>0.033326656705360454</v>
       </c>
       <c r="E3" t="n">
-        <v>7.196872419481023</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.023975520688556E-5</v>
+        <v>0.021761491781510323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04970618896467089</v>
+        <v>0.023328732858121985</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9943551354869905</v>
+        <v>0.5287582496241461</v>
       </c>
       <c r="D4" t="n">
-        <v>7.205953238720309</v>
+        <v>0.03483530116172362</v>
       </c>
       <c r="E4" t="n">
-        <v>7.218633911349007</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.607994583161906E-4</v>
+        <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.049160546126460515</v>
+        <v>0.02258338361047081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9935591580250188</v>
+        <v>0.5386684743276784</v>
       </c>
       <c r="D5" t="n">
-        <v>7.2213003771772275</v>
+        <v>0.034305613187512726</v>
       </c>
       <c r="E5" t="n">
-        <v>7.247221368122583</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.7189777158919E-4</v>
+        <v>0.028587456851916215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04876840067589233</v>
+        <v>0.022270080096554887</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9931024531220133</v>
+        <v>0.5428341835345969</v>
       </c>
       <c r="D6" t="n">
-        <v>7.246001719676703</v>
+        <v>0.03778832889609535</v>
       </c>
       <c r="E6" t="n">
-        <v>7.2902808578176845</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001960642074508142</v>
+        <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04866434700751019</v>
+        <v>0.0225048780801573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9932014751743156</v>
+        <v>0.5400303277272052</v>
       </c>
       <c r="D7" t="n">
-        <v>7.289382049427109</v>
+        <v>0.045758308285249</v>
       </c>
       <c r="E7" t="n">
-        <v>7.332382033184922</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0018489986031721816</v>
+        <v>0.04210117601863317</v>
       </c>
     </row>
   </sheetData>
@@ -1239,128 +1089,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.11333866905294082</v>
+        <v>0.08993158866647018</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0233963628627842</v>
+        <v>0.20710476814995304</v>
       </c>
       <c r="D2" t="n">
-        <v>10.538866285194938</v>
+        <v>0.07062685996119346</v>
       </c>
       <c r="E2" t="n">
-        <v>10.25015934920493</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08335169488873888</v>
+        <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11214891655652386</v>
+        <v>0.0896892656202797</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0206004611677435</v>
+        <v>0.20790449585013177</v>
       </c>
       <c r="D3" t="n">
-        <v>10.573466275397934</v>
+        <v>0.10278200949119107</v>
       </c>
       <c r="E3" t="n">
-        <v>10.329894317104964</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.05932729886667214</v>
+        <v>0.07973496801885638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.11138627938412216</v>
+        <v>0.08917534210110585</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0185497321197485</v>
+        <v>0.2084648260676194</v>
       </c>
       <c r="D4" t="n">
-        <v>10.632897368896696</v>
+        <v>0.10579727834066394</v>
       </c>
       <c r="E4" t="n">
-        <v>10.288030113011372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.11893342418187375</v>
+        <v>-0.04186420409870095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.108193771180284</v>
+        <v>0.08608435835796156</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0145922034991155</v>
+        <v>0.21074784825429127</v>
       </c>
       <c r="D5" t="n">
-        <v>10.546348913205746</v>
+        <v>0.07726156742528185</v>
       </c>
       <c r="E5" t="n">
-        <v>10.29202213437448</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.06468211043068722</v>
+        <v>0.0039920212695392365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10608439540489328</v>
+        <v>0.08411215484194359</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0120432353100821</v>
+        <v>0.21624811407010996</v>
       </c>
       <c r="D6" t="n">
-        <v>10.52205577416022</v>
+        <v>0.08497542191280921</v>
       </c>
       <c r="E6" t="n">
-        <v>10.197711454981475</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.10519923738352402</v>
+        <v>-0.09431067947124383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.10218514367018343</v>
+        <v>0.07983384108598585</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0083547123530294</v>
+        <v>0.22534679325277185</v>
       </c>
       <c r="D7" t="n">
-        <v>10.385095544517222</v>
+        <v>0.05858123189765103</v>
       </c>
       <c r="E7" t="n">
-        <v>10.104499073319822</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07873437964843348</v>
+        <v>-0.09321238172217683</v>
       </c>
     </row>
   </sheetData>
@@ -1390,128 +1219,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03735601411016094</v>
+        <v>0.01035074762146618</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0060035019485865</v>
+        <v>0.736058617521764</v>
       </c>
       <c r="D2" t="n">
-        <v>6.542246718174182</v>
+        <v>0.02636848117737786</v>
       </c>
       <c r="E2" t="n">
-        <v>6.54949323855751</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5.251205766598598E-5</v>
+        <v>0.08342160813907284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03828929212212758</v>
+        <v>0.011605114004190606</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0069738464391709</v>
+        <v>0.7330142907028911</v>
       </c>
       <c r="D3" t="n">
-        <v>6.633457690779725</v>
+        <v>0.07275434492354763</v>
       </c>
       <c r="E3" t="n">
-        <v>6.617151886961788</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.658792381490381E-4</v>
+        <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.038872666042564265</v>
+        <v>0.011535359702975475</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0075025683093</v>
+        <v>0.7322231530955179</v>
       </c>
       <c r="D4" t="n">
-        <v>6.7056701870492965</v>
+        <v>0.06107658862265279</v>
       </c>
       <c r="E4" t="n">
-        <v>6.64768109208416</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0033627351348755924</v>
+        <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03870552974414857</v>
+        <v>0.01106491249111581</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0070534559819178</v>
+        <v>0.729199204831971</v>
       </c>
       <c r="D5" t="n">
-        <v>6.733275747793151</v>
+        <v>0.03332678452666121</v>
       </c>
       <c r="E5" t="n">
-        <v>6.696471256253592</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0013545705974854294</v>
+        <v>0.04879016416943216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03889625355685623</v>
+        <v>0.011372980893677696</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0070830939861926</v>
+        <v>0.7287760757850503</v>
       </c>
       <c r="D6" t="n">
-        <v>6.78279924509433</v>
+        <v>0.04693008527398483</v>
       </c>
       <c r="E6" t="n">
-        <v>6.743354842088323</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0015558609285003502</v>
+        <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03904381261639448</v>
+        <v>0.011372181684270882</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0070560972332425</v>
+        <v>0.728774477704691</v>
       </c>
       <c r="D7" t="n">
-        <v>6.829980422148749</v>
+        <v>0.045539742510628714</v>
       </c>
       <c r="E7" t="n">
-        <v>6.780650626891749</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.002433428700097538</v>
+        <v>0.03729578474369699</v>
       </c>
     </row>
   </sheetData>
@@ -1541,128 +1349,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.026202132199945008</v>
+        <v>0.01726034052245415</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0822317426304993</v>
+        <v>0.3450769401810327</v>
       </c>
       <c r="D2" t="n">
-        <v>6.339970037578778</v>
+        <v>0.058211148883971865</v>
       </c>
       <c r="E2" t="n">
-        <v>5.94018599340126</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.15982728197893167</v>
+        <v>0.10616019582838998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.027902050483183314</v>
+        <v>0.01775424063900983</v>
       </c>
       <c r="C3" t="n">
-        <v>1.081988011112394</v>
+        <v>0.3640002708772674</v>
       </c>
       <c r="D3" t="n">
-        <v>6.455112079121114</v>
+        <v>0.05639658067692753</v>
       </c>
       <c r="E3" t="n">
-        <v>6.022687214842733</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.18699126324617585</v>
+        <v>0.08250122151174377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.028925945392143278</v>
+        <v>0.018042964618213725</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0764028336418157</v>
+        <v>0.37252430320101665</v>
       </c>
       <c r="D4" t="n">
-        <v>6.511763529587196</v>
+        <v>0.048776674675108794</v>
       </c>
       <c r="E4" t="n">
-        <v>6.123437118119902</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1507974018430656</v>
+        <v>0.10074990310014353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03034370467031978</v>
+        <v>0.018726939211033775</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0742296142712664</v>
+        <v>0.384098449587401</v>
       </c>
       <c r="D5" t="n">
-        <v>6.608321198082617</v>
+        <v>0.05742482078787979</v>
       </c>
       <c r="E5" t="n">
-        <v>6.221470858323136</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.14965318537202582</v>
+        <v>0.09803374027136424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.031629594327545946</v>
+        <v>0.019162078683175893</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0713048305504411</v>
+        <v>0.3956553946076858</v>
       </c>
       <c r="D6" t="n">
-        <v>6.696721377977921</v>
+        <v>0.05794965687510989</v>
       </c>
       <c r="E6" t="n">
-        <v>6.320410806258645</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.14160964638768875</v>
+        <v>0.09893994785490534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.032878515208581746</v>
+        <v>0.01959740689426418</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0684293967900518</v>
+        <v>0.4064718026438182</v>
       </c>
       <c r="D7" t="n">
-        <v>6.78579122040483</v>
+        <v>0.05981370585233293</v>
       </c>
       <c r="E7" t="n">
-        <v>6.393661267852428</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.15376589968874907</v>
+        <v>0.07325046173959304</v>
       </c>
     </row>
   </sheetData>
@@ -1692,128 +1479,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03519535424619918</v>
+        <v>0.04394828871375348</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9869351549876674</v>
+        <v>-0.13626062506520248</v>
       </c>
       <c r="D2" t="n">
-        <v>6.327875310104948</v>
+        <v>0.039129139587713364</v>
       </c>
       <c r="E2" t="n">
-        <v>6.4045686184010755</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.005881863537404914</v>
+        <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.035066478406721564</v>
+        <v>0.04373738957179487</v>
       </c>
       <c r="C3" t="n">
-        <v>0.987155874564796</v>
+        <v>-0.1362587759903005</v>
       </c>
       <c r="D3" t="n">
-        <v>6.357374014114683</v>
+        <v>0.0398420976924776</v>
       </c>
       <c r="E3" t="n">
-        <v>6.438003394526023</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00650109698551655</v>
+        <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03503860427370575</v>
+        <v>0.043606347239654855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.98760899906949</v>
+        <v>-0.13610548179600895</v>
       </c>
       <c r="D4" t="n">
-        <v>6.3932686927475295</v>
+        <v>0.039055690931695794</v>
       </c>
       <c r="E4" t="n">
-        <v>6.465618561421443</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005234503497132493</v>
+        <v>0.027615167032972288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.034898665381102006</v>
+        <v>0.04338372602697702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9877695693950029</v>
+        <v>-0.13603140022661292</v>
       </c>
       <c r="D5" t="n">
-        <v>6.4214399276686995</v>
+        <v>0.03962719618799</v>
       </c>
       <c r="E5" t="n">
-        <v>6.502914346285965</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006638080889021393</v>
+        <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03494855422313177</v>
+        <v>0.04333754776431329</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9883750194041682</v>
+        <v>-0.13596903005906982</v>
       </c>
       <c r="D6" t="n">
-        <v>6.462266647417166</v>
+        <v>0.03826647608742095</v>
       </c>
       <c r="E6" t="n">
-        <v>6.5402101310108876</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.006075186634724784</v>
+        <v>0.03729578474369788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.034996636927447415</v>
+        <v>0.04331983432932592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9889532801454494</v>
+        <v>-0.13597649463448677</v>
       </c>
       <c r="D7" t="n">
-        <v>6.502958898831164</v>
+        <v>0.03824848425523551</v>
       </c>
       <c r="E7" t="n">
-        <v>6.572677321122385</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00486065840677709</v>
+        <v>0.03246719013750177</v>
       </c>
     </row>
   </sheetData>
@@ -1843,128 +1609,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03697686562833905</v>
+        <v>0.024480492567732028</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9394524121019702</v>
+        <v>0.30072037221284786</v>
       </c>
       <c r="D2" t="n">
-        <v>6.1325654940580625</v>
+        <v>0.045107742348389365</v>
       </c>
       <c r="E2" t="n">
-        <v>6.557041327969969</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.1801797335752087</v>
+        <v>0.06859279146561192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.037558923992758016</v>
+        <v>0.024889187238960456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9418203266746378</v>
+        <v>0.3023400560769144</v>
       </c>
       <c r="D3" t="n">
-        <v>6.2131137295205345</v>
+        <v>0.04562753565714566</v>
       </c>
       <c r="E3" t="n">
-        <v>6.608684561129226</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.15647628281959172</v>
+        <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03781103954005792</v>
+        <v>0.024991607553419296</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9437594262396933</v>
+        <v>0.30274595451983505</v>
       </c>
       <c r="D4" t="n">
-        <v>6.274819389150496</v>
+        <v>0.04062638746846306</v>
       </c>
       <c r="E4" t="n">
-        <v>6.663172746402057</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1508183300885587</v>
+        <v>0.05448818528406907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03811055199146413</v>
+        <v>0.02524260054335498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.945905469282978</v>
+        <v>0.30315032513430284</v>
       </c>
       <c r="D5" t="n">
-        <v>6.3408420955904505</v>
+        <v>0.04176071162819865</v>
       </c>
       <c r="E5" t="n">
-        <v>6.705273922317472</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.13281055633159394</v>
+        <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03817932910105932</v>
+        <v>0.02524856418936679</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9476309250867517</v>
+        <v>0.30316217699118697</v>
       </c>
       <c r="D6" t="n">
-        <v>6.392304259066838</v>
+        <v>0.03801204836506558</v>
       </c>
       <c r="E6" t="n">
-        <v>6.743532634515288</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.12336137172015735</v>
+        <v>0.038258712117089644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.038179381377826054</v>
+        <v>0.025253063570368866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9492206830824452</v>
+        <v>0.3031639374651326</v>
       </c>
       <c r="D7" t="n">
-        <v>6.43928003510119</v>
+        <v>0.036851725378130744</v>
       </c>
       <c r="E7" t="n">
-        <v>6.766272121450679</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.10692382453519171</v>
+        <v>0.022739486969489242</v>
       </c>
     </row>
   </sheetData>
@@ -1994,128 +1739,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03903923451869571</v>
+        <v>0.04341706613421537</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9948251163909545</v>
+        <v>-0.09005636326009525</v>
       </c>
       <c r="D2" t="n">
-        <v>6.567129772812444</v>
+        <v>0.037745784744705926</v>
       </c>
       <c r="E2" t="n">
-        <v>6.518096487370238</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.002404263081256805</v>
+        <v>-0.04395188752918244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03734018314167887</v>
+        <v>0.04334846764472306</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9903487095516004</v>
+        <v>-0.13005259207091413</v>
       </c>
       <c r="D3" t="n">
-        <v>6.4925286281416135</v>
+        <v>0.049064524544302525</v>
       </c>
       <c r="E3" t="n">
-        <v>6.572584672712472</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.006408970272331348</v>
+        <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.037686556351561123</v>
+        <v>0.04375362202517977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9916644253203556</v>
+        <v>-0.13801903210176025</v>
       </c>
       <c r="D4" t="n">
-        <v>6.555484958686352</v>
+        <v>0.03623321543129106</v>
       </c>
       <c r="E4" t="n">
-        <v>6.619468258519534</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004093862657542835</v>
+        <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.037870983102269634</v>
+        <v>0.0438380512089438</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9925219611608258</v>
+        <v>-0.13483716424717151</v>
       </c>
       <c r="D5" t="n">
-        <v>6.607838600889914</v>
+        <v>0.03751640143660412</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6284279999758935</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.2392335472173613E-4</v>
+        <v>0.00895974137147082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.037317797238196684</v>
+        <v>0.04347185411811161</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9914383689247916</v>
+        <v>-0.13937880303219075</v>
       </c>
       <c r="D6" t="n">
-        <v>6.608995642069716</v>
+        <v>0.04222305609027801</v>
       </c>
       <c r="E6" t="n">
-        <v>6.67052917599922</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0037863757978534203</v>
+        <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.037411656361901864</v>
+        <v>0.043467299058874406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9920447667187801</v>
+        <v>-0.13931746970812653</v>
       </c>
       <c r="D7" t="n">
-        <v>6.6548752166568645</v>
+        <v>0.037601869744221604</v>
       </c>
       <c r="E7" t="n">
-        <v>6.692290667746248</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001399915980222073</v>
+        <v>0.021761491781512987</v>
       </c>
     </row>
   </sheetData>
@@ -2145,128 +1869,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03115529009962352</v>
+        <v>0.021195554425313064</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0344670464850534</v>
+        <v>0.31235811707399985</v>
       </c>
       <c r="D2" t="n">
-        <v>6.3720321761619285</v>
+        <v>0.04494560586279574</v>
       </c>
       <c r="E2" t="n">
-        <v>6.260635684660901</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.012409178318738489</v>
+        <v>0.13102826240640297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0333406698775249</v>
+        <v>0.021580893916663596</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0417039254643712</v>
+        <v>0.35618785331392855</v>
       </c>
       <c r="D3" t="n">
-        <v>6.555069438491107</v>
+        <v>0.06825156942665439</v>
       </c>
       <c r="E3" t="n">
-        <v>6.34956189372721</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.042233350954885125</v>
+        <v>0.08892620919440208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03448840511920083</v>
+        <v>0.021320548529403495</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0428452575480727</v>
+        <v>0.3766970421475293</v>
       </c>
       <c r="D4" t="n">
-        <v>6.656098913500581</v>
+        <v>0.05481878850232719</v>
       </c>
       <c r="E4" t="n">
-        <v>6.420020357465509</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.05573308461960473</v>
+        <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03517647663522043</v>
+        <v>0.021337820209044234</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0415382123703674</v>
+        <v>0.38514786643152665</v>
       </c>
       <c r="D5" t="n">
-        <v>6.721873003131213</v>
+        <v>0.0484747471553307</v>
       </c>
       <c r="E5" t="n">
-        <v>6.459241070537359</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0689755320179829</v>
+        <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03516999382703504</v>
+        <v>0.021273747082281514</v>
       </c>
       <c r="C6" t="n">
-        <v>1.037323549856571</v>
+        <v>0.38191996454968047</v>
       </c>
       <c r="D6" t="n">
-        <v>6.735492870496205</v>
+        <v>0.036252920459396</v>
       </c>
       <c r="E6" t="n">
-        <v>6.497499782663944</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.05664070985593426</v>
+        <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.035158163974276666</v>
+        <v>0.02130765122493257</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0337825042947135</v>
+        <v>0.38201433416412867</v>
       </c>
       <c r="D7" t="n">
-        <v>6.752159760950965</v>
+        <v>0.03592302766031999</v>
       </c>
       <c r="E7" t="n">
-        <v>6.532866926475631</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.048089347252226425</v>
+        <v>0.035367143837292225</v>
       </c>
     </row>
   </sheetData>
@@ -2296,128 +1999,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03151372317376527</v>
+        <v>0.032577393476115886</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0036649805642368</v>
+        <v>-0.015413126781091968</v>
       </c>
       <c r="D2" t="n">
-        <v>6.232026638766615</v>
+        <v>0.03192848271250758</v>
       </c>
       <c r="E2" t="n">
-        <v>6.231411904923089</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.778976983763233E-7</v>
+        <v>0.05354076692802945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0319711147452913</v>
+        <v>0.03241892242656366</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0050332259791621</v>
+        <v>0.003367199292240386</v>
       </c>
       <c r="D3" t="n">
-        <v>6.294747123955099</v>
+        <v>0.03259920485906973</v>
       </c>
       <c r="E3" t="n">
-        <v>6.288736971457489</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.6121933044527046E-5</v>
+        <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03248804950609777</v>
+        <v>0.031562716586088065</v>
       </c>
       <c r="C4" t="n">
-        <v>1.006518754309484</v>
+        <v>0.04542266917182314</v>
       </c>
       <c r="D4" t="n">
-        <v>6.362219752197486</v>
+        <v>0.034166574122387876</v>
       </c>
       <c r="E4" t="n">
-        <v>6.326995683533291</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0012407350132599654</v>
+        <v>0.038258712117088756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03259946876201727</v>
+        <v>0.031394103337187645</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0065159086385567</v>
+        <v>0.053061229785180686</v>
       </c>
       <c r="D5" t="n">
-        <v>6.400821278125753</v>
+        <v>0.03342415765211757</v>
       </c>
       <c r="E5" t="n">
-        <v>6.3633276128210134</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0014057749379838447</v>
+        <v>0.03633192924739248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03266835238167741</v>
+        <v>0.031408278817424654</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0063687951429685</v>
+        <v>0.054313662825417275</v>
       </c>
       <c r="D6" t="n">
-        <v>6.436522695196343</v>
+        <v>0.033381598972364444</v>
       </c>
       <c r="E6" t="n">
-        <v>6.397729039623278</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.001504947712721616</v>
+        <v>0.03440142671733071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03269723012858356</v>
+        <v>0.03141782400661407</v>
       </c>
       <c r="C7" t="n">
-        <v>1.006101067961163</v>
+        <v>0.05460054699235162</v>
       </c>
       <c r="D7" t="n">
-        <v>6.469459249419709</v>
+        <v>0.03329616072269762</v>
       </c>
       <c r="E7" t="n">
-        <v>6.461642365244452</v>
-      </c>
-      <c r="F7" t="n">
-        <v>6.110367820939111E-5</v>
+        <v>0.06391332574365371</v>
       </c>
     </row>
   </sheetData>
@@ -2447,128 +2129,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.015197558807488108</v>
+        <v>0.017481380436008817</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9909497612084536</v>
+        <v>-0.1283727757636061</v>
       </c>
       <c r="D2" t="n">
-        <v>5.336132785983239</v>
+        <v>0.011585355961637851</v>
       </c>
       <c r="E2" t="n">
-        <v>5.447417301668405</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.012384243431281972</v>
+        <v>0.07788653865707484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.016496925970161554</v>
+        <v>0.018684543095586436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9983921375410174</v>
+        <v>-0.12033592783839545</v>
       </c>
       <c r="D3" t="n">
-        <v>5.455155529860802</v>
+        <v>0.00931199420016628</v>
       </c>
       <c r="E3" t="n">
-        <v>5.430271142639754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.192327273670691E-4</v>
+        <v>-0.017146158834973946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.015811300599080716</v>
+        <v>0.018270251594321343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9945518826865641</v>
+        <v>-0.12666338966307292</v>
       </c>
       <c r="D4" t="n">
-        <v>5.416497689009968</v>
+        <v>0.02044204219206059</v>
       </c>
       <c r="E4" t="n">
-        <v>5.462738332826461</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0021381971405638194</v>
+        <v>0.03246719013750443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01614492469748387</v>
+        <v>0.01852594490665966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9966101545462134</v>
+        <v>-0.12820369122956338</v>
       </c>
       <c r="D5" t="n">
-        <v>5.460365418821187</v>
+        <v>0.014363531287179515</v>
       </c>
       <c r="E5" t="n">
-        <v>5.472688663612431</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.5186236218491206E-4</v>
+        <v>0.009950330853165212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.016025656844775395</v>
+        <v>0.018447184591548677</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9961660733256984</v>
+        <v>-0.12848227402675333</v>
       </c>
       <c r="D6" t="n">
-        <v>5.467732433409634</v>
+        <v>0.017168743456215444</v>
       </c>
       <c r="E6" t="n">
-        <v>5.53190052345645</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.004117543780256259</v>
+        <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01685599350947794</v>
+        <v>0.019241766289566076</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0005777747923799</v>
+        <v>-0.12947855887775647</v>
       </c>
       <c r="D7" t="n">
-        <v>5.551952709642334</v>
+        <v>0.011575100035962646</v>
       </c>
       <c r="E7" t="n">
-        <v>5.588280856586507</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0013197342603973915</v>
+        <v>0.05638033343610971</v>
       </c>
     </row>
   </sheetData>
@@ -2598,128 +2259,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03443117622743014</v>
+        <v>0.0220081570526014</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9409304984284255</v>
+        <v>0.3347695161241269</v>
       </c>
       <c r="D2" t="n">
-        <v>6.017058559885951</v>
+        <v>0.028637473010530226</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3132059165617465</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08770325686606058</v>
+        <v>-0.04499736593073589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.032916421729690525</v>
+        <v>0.020234138099475333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9387650552695103</v>
+        <v>0.34336382546434474</v>
       </c>
       <c r="D3" t="n">
-        <v>5.959533522918577</v>
+        <v>0.004783670397678883</v>
       </c>
       <c r="E3" t="n">
-        <v>6.41485957027695</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.20732180940299905</v>
+        <v>0.10165365372649937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.034174139817239275</v>
+        <v>0.02399204325397967</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9426630865906227</v>
+        <v>0.2878713214996777</v>
       </c>
       <c r="D4" t="n">
-        <v>6.081225462379905</v>
+        <v>0.05325521488749768</v>
       </c>
       <c r="E4" t="n">
-        <v>6.500119414285799</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.17547214294333768</v>
+        <v>0.08525984395082276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03510560357878826</v>
+        <v>0.02408154939481429</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9465172486652874</v>
+        <v>0.30298458346448376</v>
       </c>
       <c r="D5" t="n">
-        <v>6.187580747584403</v>
+        <v>0.04991396770050121</v>
       </c>
       <c r="E5" t="n">
-        <v>6.5844605626676</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1575135876204724</v>
+        <v>0.08434114843374996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03600241150341521</v>
+        <v>0.024308141710530785</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9507170449583706</v>
+        <v>0.3148148677095728</v>
       </c>
       <c r="D6" t="n">
-        <v>6.2959613002876855</v>
+        <v>0.05085998919717522</v>
       </c>
       <c r="E6" t="n">
-        <v>6.668801711148084</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.13900997197055054</v>
+        <v>0.08434114843375173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03688228665864487</v>
+        <v>0.024528376876184695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9551953610296636</v>
+        <v>0.32572203956546675</v>
       </c>
       <c r="D7" t="n">
-        <v>6.406890744773977</v>
+        <v>0.052000147763320084</v>
       </c>
       <c r="E7" t="n">
-        <v>6.748536679164826</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.11672194448579623</v>
+        <v>0.07973496801885283</v>
       </c>
     </row>
   </sheetData>
@@ -2749,128 +2389,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04403805473416198</v>
+        <v>0.043922915833074436</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9842267861988387</v>
+        <v>0.0685363007381159</v>
       </c>
       <c r="D2" t="n">
-        <v>6.759054843079597</v>
+        <v>0.049450910131184515</v>
       </c>
       <c r="E2" t="n">
-        <v>6.881843475130047</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.015077048160820821</v>
+        <v>0.059211859631845165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04435151088503177</v>
+        <v>0.043963247252609215</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9856204952828554</v>
+        <v>0.07202875315279011</v>
       </c>
       <c r="D3" t="n">
-        <v>6.827237485301796</v>
+        <v>0.04822820367374905</v>
       </c>
       <c r="E3" t="n">
-        <v>6.926816840580479</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00991604799771804</v>
+        <v>0.04497336564272647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04437056544005806</v>
+        <v>0.04392024579195499</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9863110205565203</v>
+        <v>0.0715623869232902</v>
       </c>
       <c r="D4" t="n">
-        <v>6.876366352681082</v>
+        <v>0.04713864718532239</v>
       </c>
       <c r="E4" t="n">
-        <v>6.9841419070265</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.011615570114462286</v>
+        <v>0.0573250666192715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.044630068409137434</v>
+        <v>0.044114679146607896</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9875097225268362</v>
+        <v>0.07159507277229427</v>
       </c>
       <c r="D5" t="n">
-        <v>6.941538105104926</v>
+        <v>0.048218871462891257</v>
       </c>
       <c r="E5" t="n">
-        <v>7.036734357279278</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.009062326428042842</v>
+        <v>0.05259245011916924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04478944019849055</v>
+        <v>0.04417322453893114</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9884407364144189</v>
+        <v>0.07212919970273002</v>
       </c>
       <c r="D6" t="n">
-        <v>7.000184330260263</v>
+        <v>0.047966675876432566</v>
       </c>
       <c r="E6" t="n">
-        <v>7.092169064704587</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.008461191370792823</v>
+        <v>0.055434706888101815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04499668542399195</v>
+        <v>0.04428656395418504</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9894391439321845</v>
+        <v>0.07268345305279422</v>
       </c>
       <c r="D7" t="n">
-        <v>7.06226637342762</v>
+        <v>0.04831574986978179</v>
       </c>
       <c r="E7" t="n">
-        <v>7.1485493976895285</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.007444760275781145</v>
+        <v>0.05638033343611415</v>
       </c>
     </row>
   </sheetData>
@@ -2900,128 +2519,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04745769508825655</v>
+        <v>0.045198997194977386</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9844389108226148</v>
+        <v>0.06696009816799009</v>
       </c>
       <c r="D2" t="n">
-        <v>6.9333981351993685</v>
+        <v>0.049163829128635046</v>
       </c>
       <c r="E2" t="n">
-        <v>7.061510575227036</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01641279728984268</v>
+        <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04785561524020737</v>
+        <v>0.04549132864069846</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9859786726864636</v>
+        <v>0.06819177292041423</v>
       </c>
       <c r="D3" t="n">
-        <v>7.0103544393639865</v>
+        <v>0.05004133140539367</v>
       </c>
       <c r="E3" t="n">
-        <v>7.1197794836584105</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.011973840318836656</v>
+        <v>0.05826890812397867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.048070770849779544</v>
+        <v>0.04560757588480623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9870859715147448</v>
+        <v>0.06912770479648889</v>
       </c>
       <c r="D4" t="n">
-        <v>7.075905219447489</v>
+        <v>0.04963557176441436</v>
       </c>
       <c r="E4" t="n">
-        <v>7.137619402177705</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.003808640350058505</v>
+        <v>0.017839918128327525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04748748453854552</v>
+        <v>0.04508946354873659</v>
       </c>
       <c r="C5" t="n">
-        <v>0.986449186493458</v>
+        <v>0.06719745974215285</v>
       </c>
       <c r="D5" t="n">
-        <v>7.088386337316665</v>
+        <v>0.04628826072896818</v>
       </c>
       <c r="E5" t="n">
-        <v>7.168148607045276</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006362019672259642</v>
+        <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047170032852367864</v>
+        <v>0.04465478841796708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9863959628844573</v>
+        <v>0.07007164422378287</v>
       </c>
       <c r="D6" t="n">
-        <v>7.117802880197673</v>
+        <v>0.04679402001160214</v>
       </c>
       <c r="E6" t="n">
-        <v>7.19284121914688</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.005630752312256022</v>
+        <v>0.02469261259037392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.046755097519597166</v>
+        <v>0.04413749815013516</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9861416592464165</v>
+        <v>0.07234722602120647</v>
       </c>
       <c r="D7" t="n">
-        <v>7.139915472065118</v>
+        <v>0.04592394017426503</v>
       </c>
       <c r="E7" t="n">
-        <v>7.216557746122548</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.005874038172694168</v>
+        <v>0.02371652661731538</v>
       </c>
     </row>
   </sheetData>
@@ -3051,128 +2649,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0019255542390176261</v>
+        <v>-6.957397314906193E-4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.957374789246559</v>
+        <v>0.5614783959548146</v>
       </c>
       <c r="D2" t="n">
-        <v>4.311715687495638</v>
+        <v>0.032550440236099945</v>
       </c>
       <c r="E2" t="n">
-        <v>4.584508729787923</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.07441604392308056</v>
+        <v>0.0788111804242897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.083073632716598E-4</v>
+        <v>2.32361070668579E-4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9571203131943656</v>
+        <v>0.5629290453453798</v>
       </c>
       <c r="D3" t="n">
-        <v>4.387518123933648</v>
+        <v>0.04459746362945646</v>
       </c>
       <c r="E3" t="n">
-        <v>4.661469770417394</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0750495046111553</v>
+        <v>0.07696104113612456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0010173777556417131</v>
+        <v>8.674714529544405E-4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9571331555939001</v>
+        <v>0.5642383426951125</v>
       </c>
       <c r="D4" t="n">
-        <v>4.462664648820816</v>
+        <v>0.044291841755691744</v>
       </c>
       <c r="E4" t="n">
-        <v>4.744891378837347</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.07965192713582406</v>
+        <v>0.08342160813907906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002508034620235238</v>
+        <v>0.0016183301659876608</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9574306794570961</v>
+        <v>0.5657501354700161</v>
       </c>
       <c r="D5" t="n">
-        <v>4.545412611410595</v>
+        <v>0.048814116271798234</v>
       </c>
       <c r="E5" t="n">
-        <v>4.751866992597089</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0426234115110981</v>
+        <v>0.006975613736424968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.002587894648338417</v>
+        <v>8.334460757391453E-4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9575092878689694</v>
+        <v>0.5640349643709547</v>
       </c>
       <c r="D6" t="n">
-        <v>4.552544674778038</v>
+        <v>0.004767936121029144</v>
       </c>
       <c r="E6" t="n">
-        <v>4.751866992597089</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.03972938638075863</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00254318970299525</v>
+        <v>7.451789560791557E-4</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9575404517699588</v>
+        <v>0.5640246597200023</v>
       </c>
       <c r="D7" t="n">
-        <v>4.552648056545166</v>
+        <v>7.451789560791557E-4</v>
       </c>
       <c r="E7" t="n">
-        <v>4.735737610646143</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0335217848208944</v>
+        <v>-0.016129381929887998</v>
       </c>
     </row>
   </sheetData>
@@ -3202,128 +2779,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005419110723150284</v>
+        <v>0.0049206821852115</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8755799644668615</v>
+        <v>0.2618475656206432</v>
       </c>
       <c r="D2" t="n">
-        <v>4.308463116234074</v>
+        <v>0.01769626789920977</v>
       </c>
       <c r="E2" t="n">
-        <v>3.944288087437464</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.13262345159901132</v>
+        <v>-0.9702190738997145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.009411910912195821</v>
+        <v>-0.014354765700717467</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7213071028647446</v>
+        <v>0.18380016285203218</v>
       </c>
       <c r="D3" t="n">
-        <v>2.835631102301246</v>
+        <v>-0.19268118948563284</v>
       </c>
       <c r="E3" t="n">
-        <v>4.659685876575705</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3.3271758195534478</v>
+        <v>0.7153977894947663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>5.07336169634342E-4</v>
+        <v>-0.004191639289648689</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5680605101446441</v>
+        <v>-0.40595636534235724</v>
       </c>
       <c r="D4" t="n">
-        <v>2.6474908723310224</v>
+        <v>-0.2946119256869008</v>
       </c>
       <c r="E4" t="n">
-        <v>4.513503366678199</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.4820026290597714</v>
+        <v>-0.14618251017808248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0010762484380908853</v>
+        <v>-0.001392967882709219</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5647146209350871</v>
+        <v>-0.3527881434897324</v>
       </c>
       <c r="D5" t="n">
-        <v>2.5477650943648276</v>
+        <v>0.05017848849368541</v>
       </c>
       <c r="E5" t="n">
-        <v>4.239066521034124</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.8605005158535963</v>
+        <v>-0.27443684570175986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.004046300824408656</v>
+        <v>-0.007477546607007462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5753003616833368</v>
+        <v>-0.3295227806864512</v>
       </c>
       <c r="D6" t="n">
-        <v>2.4346902019262466</v>
+        <v>0.082955645911455</v>
       </c>
       <c r="E6" t="n">
-        <v>4.131481310395939</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.8791000657818078</v>
+        <v>-0.10758521067993776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00545187501352616</v>
+        <v>-0.010840526202434085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6111105987723422</v>
+        <v>-0.3051035811716616</v>
       </c>
       <c r="D7" t="n">
-        <v>2.5193401423992774</v>
+        <v>0.02198410685712262</v>
       </c>
       <c r="E7" t="n">
-        <v>4.101022102906264</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.501717824193226</v>
+        <v>-0.030459207484708095</v>
       </c>
     </row>
   </sheetData>
@@ -3353,128 +2909,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.033854911345026474</v>
+        <v>0.015809547469651377</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0417434286956562</v>
+        <v>0.5411739377985261</v>
       </c>
       <c r="D2" t="n">
-        <v>6.549026628141633</v>
+        <v>0.03390357690365213</v>
       </c>
       <c r="E2" t="n">
-        <v>6.292362685728368</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.06587637933511996</v>
+        <v>0.03825871211709142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03383223131828797</v>
+        <v>0.01589640270410093</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0358531360385013</v>
+        <v>0.5411814417329199</v>
       </c>
       <c r="D3" t="n">
-        <v>6.551795852421665</v>
+        <v>0.0366013076864732</v>
       </c>
       <c r="E3" t="n">
-        <v>6.343055800008708</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.043572409481364135</v>
+        <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.034118081028957026</v>
+        <v>0.016163597147740766</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0330640767570325</v>
+        <v>0.5414569823149815</v>
       </c>
       <c r="D4" t="n">
-        <v>6.586901164883293</v>
+        <v>0.043611737849168955</v>
       </c>
       <c r="E4" t="n">
-        <v>6.408843540532218</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.031704517589548446</v>
+        <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03473173398436871</v>
+        <v>0.0165417602930891</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0325296952280942</v>
+        <v>0.5429021402186389</v>
       </c>
       <c r="D5" t="n">
-        <v>6.65205300165464</v>
+        <v>0.05225806543131929</v>
       </c>
       <c r="E5" t="n">
-        <v>6.455727126456212</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03854384927242883</v>
+        <v>0.04688358589885144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.034914729460720946</v>
+        <v>0.016462184781512176</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0298773415674316</v>
+        <v>0.5422606840392366</v>
       </c>
       <c r="D6" t="n">
-        <v>6.683521820340199</v>
+        <v>0.041885310141235664</v>
       </c>
       <c r="E6" t="n">
-        <v>6.485285928621471</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.03929746876551948</v>
+        <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03473923622228132</v>
+        <v>0.016253930397202528</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0260098318259672</v>
+        <v>0.5416766592392659</v>
       </c>
       <c r="D7" t="n">
-        <v>6.6887063611905075</v>
+        <v>0.032265243646516714</v>
       </c>
       <c r="E7" t="n">
-        <v>6.47826131368174</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.04428711802096744</v>
+        <v>-0.007024614936964824</v>
       </c>
     </row>
   </sheetData>
@@ -3504,128 +3039,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01740872481404746</v>
+        <v>0.018305552467435825</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9968472162636405</v>
+        <v>-0.05159521236619531</v>
       </c>
       <c r="D2" t="n">
-        <v>5.47725202061015</v>
+        <v>0.018150998545478386</v>
       </c>
       <c r="E2" t="n">
-        <v>5.4920000564003475</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.175045596689451E-4</v>
+        <v>0.014888612493750841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.017357242101070286</v>
+        <v>0.018231055757417916</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9966640885949086</v>
+        <v>-0.051064844700881115</v>
       </c>
       <c r="D3" t="n">
-        <v>5.49103647287651</v>
+        <v>0.017470771072612933</v>
       </c>
       <c r="E3" t="n">
-        <v>5.521558858665889</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.316160342757151E-4</v>
+        <v>0.029558802241545834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.017612964808900202</v>
+        <v>0.01847399085092855</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989764717656376</v>
+        <v>-0.05140499855702478</v>
       </c>
       <c r="D4" t="n">
-        <v>5.533520352085251</v>
+        <v>0.016954520664354506</v>
       </c>
       <c r="E4" t="n">
-        <v>5.544298345294454</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.1616513761762423E-4</v>
+        <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01771822356929486</v>
+        <v>0.018571567068035748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9998791701938802</v>
+        <v>-0.05062912360690425</v>
       </c>
       <c r="D5" t="n">
-        <v>5.5613466523696165</v>
+        <v>0.017420286771499843</v>
       </c>
       <c r="E5" t="n">
-        <v>5.576765535683644</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.377419626515997E-4</v>
+        <v>0.03246719013749999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.018013611275196767</v>
+        <v>0.01884043546109199</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0021175938343343</v>
+        <v>-0.049780593482458835</v>
       </c>
       <c r="D6" t="n">
-        <v>5.606588471272732</v>
+        <v>0.017224199467339406</v>
       </c>
       <c r="E6" t="n">
-        <v>5.607294740673681</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4.988164667165144E-7</v>
+        <v>0.03052920503482426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.018258723712075153</v>
+        <v>0.01904799292738314</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0037690694069883</v>
+        <v>-0.04762238802313232</v>
       </c>
       <c r="D7" t="n">
-        <v>5.646687747448796</v>
+        <v>0.01759411927917697</v>
       </c>
       <c r="E7" t="n">
-        <v>5.648436683845616</v>
-      </c>
-      <c r="F7" t="n">
-        <v>3.0587785201207537E-6</v>
+        <v>0.041141943331173714</v>
       </c>
     </row>
   </sheetData>
@@ -3655,128 +3169,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041323191471931114</v>
+        <v>0.04469973372505606</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9905773362018125</v>
+        <v>-0.09355207834056023</v>
       </c>
       <c r="D2" t="n">
-        <v>6.6591453121395725</v>
+        <v>0.03845759927301119</v>
       </c>
       <c r="E2" t="n">
-        <v>6.728610126071713</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004825360374626876</v>
+        <v>0.04783732941415941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04146629528413815</v>
+        <v>0.044809957127861295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9915917458094973</v>
+        <v>-0.09168825335740638</v>
       </c>
       <c r="D3" t="n">
-        <v>6.713500557067049</v>
+        <v>0.04042383594859414</v>
       </c>
       <c r="E3" t="n">
-        <v>6.747431880365125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0011513347007585718</v>
+        <v>0.018821754240588184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04101406335598618</v>
+        <v>0.04443033349850947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9907367836162395</v>
+        <v>-0.09274374664861917</v>
       </c>
       <c r="D4" t="n">
-        <v>6.725943022178606</v>
+        <v>0.042684733491737785</v>
       </c>
       <c r="E4" t="n">
-        <v>6.798124994599409</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005210237142557571</v>
+        <v>0.05069311431551782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04121336325360942</v>
+        <v>0.04464227375088196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9918393700491508</v>
+        <v>-0.09414997647924817</v>
       </c>
       <c r="D5" t="n">
-        <v>6.7838613754124735</v>
+        <v>0.039869518230416116</v>
       </c>
       <c r="E5" t="n">
-        <v>6.853559701569009</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004857856669022783</v>
+        <v>0.055434706888100926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.041497166902455675</v>
+        <v>0.04488890198597807</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9931100292631895</v>
+        <v>-0.09301274729980902</v>
       </c>
       <c r="D6" t="n">
-        <v>6.84783604268467</v>
+        <v>0.03973276760255616</v>
       </c>
       <c r="E6" t="n">
-        <v>6.881174868609786</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0011114773140652127</v>
+        <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.041236962930996914</v>
+        <v>0.04471901269454127</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9927679785623543</v>
+        <v>-0.09432194164164831</v>
       </c>
       <c r="D7" t="n">
-        <v>6.872647027374809</v>
+        <v>0.0421142965212328</v>
       </c>
       <c r="E7" t="n">
-        <v>6.905867481112493</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001103598546537596</v>
+        <v>0.024692612590371255</v>
       </c>
     </row>
   </sheetData>
@@ -3806,128 +3299,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.035255734460997765</v>
+        <v>0.04097139127444252</v>
       </c>
       <c r="C2" t="n">
-        <v>1.017290765083539</v>
+        <v>-0.15545056368807347</v>
       </c>
       <c r="D2" t="n">
-        <v>6.49479598194523</v>
+        <v>0.03279586525768036</v>
       </c>
       <c r="E2" t="n">
-        <v>6.381246909301904</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.012893391898159308</v>
+        <v>0.03149866705937132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03515422854646938</v>
+        <v>0.040950718782100375</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0157831141074418</v>
+        <v>-0.15560164525204323</v>
       </c>
       <c r="D3" t="n">
-        <v>6.517117085965646</v>
+        <v>0.03604947436441586</v>
       </c>
       <c r="E3" t="n">
-        <v>6.373214737642869</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.020707885852809724</v>
+        <v>-0.008032171697265333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.034238205350722604</v>
+        <v>0.040052776029522535</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0119158196495739</v>
+        <v>-0.15463691535196422</v>
       </c>
       <c r="D4" t="n">
-        <v>6.483395020395351</v>
+        <v>0.041294846284365</v>
       </c>
       <c r="E4" t="n">
-        <v>6.395954224471555</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007645892791786968</v>
+        <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03399443538619979</v>
+        <v>0.03952351303519446</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0105119751479483</v>
+        <v>-0.1495655972213601</v>
       </c>
       <c r="D5" t="n">
-        <v>6.497182771712815</v>
+        <v>0.03612246808609534</v>
       </c>
       <c r="E5" t="n">
-        <v>6.463612872971875</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0011269381014769849</v>
+        <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03465253664547305</v>
+        <v>0.04019502531614055</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0117762033284174</v>
+        <v>-0.1518293936452373</v>
       </c>
       <c r="D6" t="n">
-        <v>6.574382229045641</v>
+        <v>0.029922453743505113</v>
       </c>
       <c r="E6" t="n">
-        <v>6.521881781201755</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0027562970238085675</v>
+        <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03510210697727695</v>
+        <v>0.04051078979582374</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0123672773465557</v>
+        <v>-0.14575163157251003</v>
       </c>
       <c r="D7" t="n">
-        <v>6.637641808988604</v>
+        <v>0.03201800136680555</v>
       </c>
       <c r="E7" t="n">
-        <v>6.578262114542213</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.003525948112546747</v>
+        <v>0.05638033343610793</v>
       </c>
     </row>
   </sheetData>
@@ -3957,128 +3429,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03666035185624176</v>
+        <v>0.03714990475489898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9705104216570372</v>
+        <v>-0.059103323336885616</v>
       </c>
       <c r="D2" t="n">
-        <v>6.308687017564513</v>
+        <v>0.03437892901832662</v>
       </c>
       <c r="E2" t="n">
-        <v>6.508535129415211</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03993926781028904</v>
+        <v>0.04592893188840019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03687186371675527</v>
+        <v>0.03735639599375862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9732839121221665</v>
+        <v>-0.0584435746728762</v>
       </c>
       <c r="D3" t="n">
-        <v>6.371524396658543</v>
+        <v>0.03467214503329345</v>
       </c>
       <c r="E3" t="n">
-        <v>6.564915462908522</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.03740010450530374</v>
+        <v>0.056380333436107044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03728489560131421</v>
+        <v>0.03774114383825607</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9766476882414794</v>
+        <v>-0.05734759550153934</v>
       </c>
       <c r="D4" t="n">
-        <v>6.448894405951664</v>
+        <v>0.03450786728212028</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6241273224191275</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.030706575013692894</v>
+        <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.037738787417139756</v>
+        <v>0.03811435959277533</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9799519785986783</v>
+        <v>-0.05464480898266161</v>
       </c>
       <c r="D5" t="n">
-        <v>6.529065463511329</v>
+        <v>0.03487873883368493</v>
       </c>
       <c r="E5" t="n">
-        <v>6.678615507719294</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.022365215722604262</v>
+        <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03808346991709822</v>
+        <v>0.038392264005103684</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9826146352740479</v>
+        <v>-0.05222746563803393</v>
       </c>
       <c r="D6" t="n">
-        <v>6.600588811170293</v>
+        <v>0.035546484180501096</v>
       </c>
       <c r="E6" t="n">
-        <v>6.692518412912096</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.008451051676406586</v>
+        <v>0.013902905168992064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03763577513876005</v>
+        <v>0.03806939646077346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9820914934125915</v>
+        <v>-0.054257290863459706</v>
       </c>
       <c r="D7" t="n">
-        <v>6.610301177966868</v>
+        <v>0.03731506249117236</v>
       </c>
       <c r="E7" t="n">
-        <v>6.712321040196117</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.010408052289274985</v>
+        <v>0.019802627296178876</v>
       </c>
     </row>
   </sheetData>
@@ -4108,128 +3559,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.055811022968302725</v>
+        <v>0.050387268185144975</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9893614704598569</v>
+        <v>0.12142147915830392</v>
       </c>
       <c r="D2" t="n">
-        <v>7.386399090854399</v>
+        <v>0.0556156150872335</v>
       </c>
       <c r="E2" t="n">
-        <v>7.449595120504138</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003993738163490708</v>
+        <v>0.040181789632828924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05549976049025934</v>
+        <v>0.049937078818609044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9892929384946151</v>
+        <v>0.12394467080297655</v>
       </c>
       <c r="D3" t="n">
-        <v>7.4253316078489435</v>
+        <v>0.05491739750692448</v>
       </c>
       <c r="E3" t="n">
-        <v>7.483996547100639</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0034415750974051067</v>
+        <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0550859642801638</v>
+        <v>0.04931158427809846</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9890483333542821</v>
+        <v>0.12794697391843224</v>
       </c>
       <c r="D4" t="n">
-        <v>7.457120276019253</v>
+        <v>0.05371314272505797</v>
       </c>
       <c r="E4" t="n">
-        <v>7.51743132322601</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0036374224151755853</v>
+        <v>0.03343477608623946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.054669714168497245</v>
+        <v>0.04862882398088208</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9888084247690239</v>
+        <v>0.13323564607397165</v>
       </c>
       <c r="D5" t="n">
-        <v>7.4879691391969265</v>
+        <v>0.053083527974070774</v>
       </c>
       <c r="E5" t="n">
-        <v>7.5537632523428915</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.004328865324664038</v>
+        <v>0.03633192924738893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05432491446006365</v>
+        <v>0.04806779863752631</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9886952406711887</v>
+        <v>0.13769360635285066</v>
       </c>
       <c r="D6" t="n">
-        <v>7.5226946912084</v>
+        <v>0.0530704730013559</v>
       </c>
       <c r="E6" t="n">
-        <v>7.588164678872852</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.004286319284783468</v>
+        <v>0.034401426717331596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05395696699530836</v>
+        <v>0.04749263760328917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9885458301000013</v>
+        <v>0.14189549155225034</v>
       </c>
       <c r="D7" t="n">
-        <v>7.555205518407181</v>
+        <v>0.05237404495744366</v>
       </c>
       <c r="E7" t="n">
-        <v>7.625460464048802</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0049357573871071595</v>
+        <v>0.03729578474369699</v>
       </c>
     </row>
   </sheetData>
@@ -4259,128 +3689,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05051416325585399</v>
+        <v>0.06293812262905044</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9792886577491647</v>
+        <v>-0.21323105196296654</v>
       </c>
       <c r="D2" t="n">
-        <v>7.056023280851532</v>
+        <v>0.054985503214367945</v>
       </c>
       <c r="E2" t="n">
-        <v>7.204364365560246</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.022005077412557892</v>
+        <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05052838956692803</v>
+        <v>0.06281686705659896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.980296575192224</v>
+        <v>-0.21253637313865248</v>
       </c>
       <c r="D3" t="n">
-        <v>7.112942103562537</v>
+        <v>0.052042736396875885</v>
       </c>
       <c r="E3" t="n">
-        <v>7.233923167693538</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.014636417878269475</v>
+        <v>0.029558802241549387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05012340582982548</v>
+        <v>0.06237232383709707</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9803512150068187</v>
+        <v>-0.21246413150285948</v>
       </c>
       <c r="D4" t="n">
-        <v>7.14190877254416</v>
+        <v>0.05609213859058151</v>
       </c>
       <c r="E4" t="n">
-        <v>7.277940052916942</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.018504509239858396</v>
+        <v>0.04401688541676929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.050014540450178085</v>
+        <v>0.06198923200857237</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9810172651691798</v>
+        <v>-0.20947962821785215</v>
       </c>
       <c r="D5" t="n">
-        <v>7.189799387227992</v>
+        <v>0.05276859121615974</v>
       </c>
       <c r="E5" t="n">
-        <v>7.304581983956834</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.013175044511816034</v>
+        <v>0.02664193094642009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04957874597847395</v>
+        <v>0.06139685555991876</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9809625084716497</v>
+        <v>-0.20750815601081474</v>
       </c>
       <c r="D6" t="n">
-        <v>7.21509981229759</v>
+        <v>0.055868437596659666</v>
       </c>
       <c r="E6" t="n">
-        <v>7.348598869344651</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.017821998232454655</v>
+        <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04948353987061253</v>
+        <v>0.061015678820812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9815970345878128</v>
+        <v>-0.2042733802948522</v>
       </c>
       <c r="D7" t="n">
-        <v>7.262846398394676</v>
+        <v>0.05202420084667626</v>
       </c>
       <c r="E7" t="n">
-        <v>7.360527440566008</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.00954158599967752</v>
+        <v>0.011928570865274324</v>
       </c>
     </row>
   </sheetData>
@@ -4410,128 +3819,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05100529555490242</v>
+        <v>0.02942175709354323</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0123953317323664</v>
+        <v>0.44214236194129897</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2775453805116825</v>
+        <v>0.05809511916912992</v>
       </c>
       <c r="E2" t="n">
-        <v>7.20665423679888</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0050255542569091665</v>
+        <v>0.06859279146560748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05136032101112514</v>
+        <v>0.029590849373198225</v>
       </c>
       <c r="C3" t="n">
-        <v>1.012408528380973</v>
+        <v>0.44294897308420933</v>
       </c>
       <c r="D3" t="n">
-        <v>7.347438531439184</v>
+        <v>0.05997395591386838</v>
       </c>
       <c r="E3" t="n">
-        <v>7.276180299497302</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005077735619483047</v>
+        <v>0.06952606264861139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.05171990024251108</v>
+        <v>0.029731843318162275</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0124243960219872</v>
+        <v>0.4438566917152966</v>
       </c>
       <c r="D4" t="n">
-        <v>7.418302345308149</v>
+        <v>0.06059145147336538</v>
       </c>
       <c r="E4" t="n">
-        <v>7.344773090803361</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005406551268029834</v>
+        <v>0.06859279146561104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05204515997126405</v>
+        <v>0.029845450448990198</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0123394414068752</v>
+        <v>0.4446405783724412</v>
       </c>
       <c r="D5" t="n">
-        <v>7.487448647975387</v>
+        <v>0.06034458891843974</v>
       </c>
       <c r="E5" t="n">
-        <v>7.416163087386834</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.005081631148424254</v>
+        <v>0.07138999608667174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.052413918188788794</v>
+        <v>0.030001876611513247</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0123681007105116</v>
+        <v>0.44564613306409395</v>
       </c>
       <c r="D6" t="n">
-        <v>7.560300857526002</v>
+        <v>0.061816552306999305</v>
       </c>
       <c r="E6" t="n">
-        <v>7.480076412807756</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00643596153035085</v>
+        <v>0.06391332574365638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.052619626590043475</v>
+        <v>0.030029362342439306</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0119830303284814</v>
+        <v>0.4458640432432286</v>
       </c>
       <c r="D7" t="n">
-        <v>7.622330021911834</v>
+        <v>0.05852601617562747</v>
       </c>
       <c r="E7" t="n">
-        <v>7.517372197706911</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.011016144861831462</v>
+        <v>0.0372957847436961</v>
       </c>
     </row>
   </sheetData>
@@ -4561,128 +3949,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03826012893288432</v>
+        <v>0.02544617799515243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9954047773513415</v>
+        <v>0.3606392103672311</v>
       </c>
       <c r="D2" t="n">
-        <v>6.530761579069431</v>
+        <v>0.04646023100994355</v>
       </c>
       <c r="E2" t="n">
-        <v>6.572215760743863</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0017184491782968729</v>
+        <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03850140049876521</v>
+        <v>0.02544126090631281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9964032448977129</v>
+        <v>0.36247914617209664</v>
       </c>
       <c r="D3" t="n">
-        <v>6.587078510671842</v>
+        <v>0.043471731905159176</v>
       </c>
       <c r="E3" t="n">
-        <v>6.62195785266862</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0012165684981282404</v>
+        <v>0.04974209189481282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03873276911361512</v>
+        <v>0.025488444274754423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9973068768360404</v>
+        <v>0.36444351763800586</v>
       </c>
       <c r="D4" t="n">
-        <v>6.642856873698449</v>
+        <v>0.04361662721957295</v>
       </c>
       <c r="E4" t="n">
-        <v>6.676446037858928</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0011282319489996123</v>
+        <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03904962269736717</v>
+        <v>0.025568403170445727</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9984044376723181</v>
+        <v>0.3677724231046895</v>
       </c>
       <c r="D5" t="n">
-        <v>6.704842974775486</v>
+        <v>0.045607655102945746</v>
       </c>
       <c r="E5" t="n">
-        <v>6.738481428761324</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0011315455865573466</v>
+        <v>0.062035390919452205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.039502380307685395</v>
+        <v>0.02560380160469828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9998298301135973</v>
+        <v>0.37479786048800534</v>
       </c>
       <c r="D6" t="n">
-        <v>6.77683712244975</v>
+        <v>0.048854533395846</v>
       </c>
       <c r="E6" t="n">
-        <v>6.796750336923292</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.96536110669278E-4</v>
+        <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.039865117212976836</v>
+        <v>0.025548854891919867</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0009006686753303</v>
+        <v>0.380601747407844</v>
       </c>
       <c r="D7" t="n">
-        <v>6.8427370742587765</v>
+        <v>0.047726103143451916</v>
       </c>
       <c r="E7" t="n">
-        <v>6.807690276975884</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0012282779997881616</v>
+        <v>0.010939940038334761</v>
       </c>
     </row>
   </sheetData>
@@ -4712,128 +4079,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.020281894457633252</v>
+        <v>0.0185935618447393</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0018442283229403</v>
+        <v>0.06208996271704187</v>
       </c>
       <c r="D2" t="n">
-        <v>5.648803123519802</v>
+        <v>0.023601608035928028</v>
       </c>
       <c r="E2" t="n">
-        <v>5.640899546179572</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.246653477300512E-5</v>
+        <v>0.022739486969489242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0203339702646668</v>
+        <v>0.018582100893385193</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0021367356149353</v>
+        <v>0.06180459609451326</v>
       </c>
       <c r="D3" t="n">
-        <v>5.673286627404833</v>
+        <v>0.019987505700930924</v>
       </c>
       <c r="E3" t="n">
-        <v>5.752440920627363</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.006265402135558221</v>
+        <v>0.11154137473290593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.022328923131259726</v>
+        <v>0.020352503587210382</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0195441366491294</v>
+        <v>0.063024346828279</v>
       </c>
       <c r="D4" t="n">
-        <v>5.887196335177407</v>
+        <v>0.02738232587408008</v>
       </c>
       <c r="E4" t="n">
-        <v>5.804084154052078</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.006907634651409462</v>
+        <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.022937980832873184</v>
+        <v>0.02056782548369052</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0225376441763674</v>
+        <v>0.07441151836925775</v>
       </c>
       <c r="D5" t="n">
-        <v>5.95783251831867</v>
+        <v>0.02441067687601642</v>
       </c>
       <c r="E5" t="n">
-        <v>5.87640481548445</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.006630470788858016</v>
+        <v>0.07232066157962702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.023961887268513605</v>
+        <v>0.02130753660151785</v>
       </c>
       <c r="C6" t="n">
-        <v>1.02828407291361</v>
+        <v>0.08167250263640968</v>
       </c>
       <c r="D6" t="n">
-        <v>6.066575365024015</v>
+        <v>0.02721414602504683</v>
       </c>
       <c r="E6" t="n">
-        <v>5.9156255285190635</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02278585314087153</v>
+        <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.024233342844970238</v>
+        <v>0.02145878175992921</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0270594325039628</v>
+        <v>0.08469265995821079</v>
       </c>
       <c r="D7" t="n">
-        <v>6.099932341071715</v>
+        <v>0.02478048828233861</v>
       </c>
       <c r="E7" t="n">
-        <v>5.964415692752709</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.018364761971617034</v>
+        <v>0.04879016416943038</v>
       </c>
     </row>
   </sheetData>
@@ -4863,128 +4209,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03700660593085392</v>
+        <v>0.026655011063845387</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0118372322784766</v>
+        <v>0.3004619540799679</v>
       </c>
       <c r="D2" t="n">
-        <v>6.556121627127219</v>
+        <v>0.04922194901323859</v>
       </c>
       <c r="E2" t="n">
-        <v>6.490686844451591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004281710783806677</v>
+        <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03722121969014761</v>
+        <v>0.02663315915558401</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0116568793985496</v>
+        <v>0.3003030448614775</v>
       </c>
       <c r="D3" t="n">
-        <v>6.6035692179012635</v>
+        <v>0.040998854836698136</v>
       </c>
       <c r="E3" t="n">
-        <v>6.532788020422067</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005009977916589049</v>
+        <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03730426381524856</v>
+        <v>0.026653448627403493</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0109378034276786</v>
+        <v>0.30033887489185196</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6415466354393855</v>
+        <v>0.03929806846446413</v>
       </c>
       <c r="E4" t="n">
-        <v>6.585380470502586</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0031546380837077642</v>
+        <v>0.05259245011917102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03760471620881227</v>
+        <v>0.026901693103690505</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0111969757427017</v>
+        <v>0.30053895028070277</v>
       </c>
       <c r="D5" t="n">
-        <v>6.696721532096078</v>
+        <v>0.042707772855196384</v>
       </c>
       <c r="E5" t="n">
-        <v>6.646475569931742</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0025246567138198033</v>
+        <v>0.061095099359810945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03806618571293941</v>
+        <v>0.02721735105226922</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0120324785271213</v>
+        <v>0.30137595998763494</v>
       </c>
       <c r="D6" t="n">
-        <v>6.764515330220922</v>
+        <v>0.045629945272372185</v>
       </c>
       <c r="E6" t="n">
-        <v>6.673117500915591</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.008353563201726385</v>
+        <v>0.0266419309464192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03781846289009503</v>
+        <v>0.026915611581881212</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0101341902245433</v>
+        <v>0.30005617562502895</v>
       </c>
       <c r="D7" t="n">
-        <v>6.778562605950694</v>
+        <v>0.034909687492929865</v>
       </c>
       <c r="E7" t="n">
-        <v>6.656988118879823</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.014780355906545497</v>
+        <v>-0.016129381929883557</v>
       </c>
     </row>
   </sheetData>
@@ -5014,128 +4339,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03422325672654799</v>
+        <v>0.03396640013012867</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0085035646327414</v>
+        <v>0.004991619074509401</v>
       </c>
       <c r="D2" t="n">
-        <v>6.396318970632679</v>
+        <v>0.03407013864912892</v>
       </c>
       <c r="E2" t="n">
-        <v>6.3380101920504535</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0033999136597510117</v>
+        <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.034117757427906986</v>
+        <v>0.03383321516257549</v>
       </c>
       <c r="C3" t="n">
-        <v>1.007639026359853</v>
+        <v>0.006252662738488457</v>
       </c>
       <c r="D3" t="n">
-        <v>6.420544176404451</v>
+        <v>0.034018036383945544</v>
       </c>
       <c r="E3" t="n">
-        <v>6.384893777930412</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0012709509113577665</v>
+        <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03437421550321288</v>
+        <v>0.0341261093458282</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0080051589447103</v>
+        <v>0.005056906740408262</v>
       </c>
       <c r="D4" t="n">
-        <v>6.47038008297105</v>
+        <v>0.03436319526737461</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4544198405601385</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.5472933781505943E-4</v>
+        <v>0.0695260626486105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03507827900179634</v>
+        <v>0.03448297545326027</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0097367987446186</v>
+        <v>0.014387473503478798</v>
       </c>
       <c r="D5" t="n">
-        <v>6.5523435065627424</v>
+        <v>0.035483279837418356</v>
       </c>
       <c r="E5" t="n">
-        <v>6.516455231470126</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0012879682891232937</v>
+        <v>0.06203539091945309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.035605934068024016</v>
+        <v>0.034328127790310976</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0107973290764214</v>
+        <v>0.03318376589773031</v>
       </c>
       <c r="D6" t="n">
-        <v>6.622421477084101</v>
+        <v>0.03638669567995629</v>
       </c>
       <c r="E6" t="n">
-        <v>6.537237770730439</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0072562638281469935</v>
+        <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03530605845087037</v>
+        <v>0.03433552051047878</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0092077010609808</v>
+        <v>0.024810675016400996</v>
       </c>
       <c r="D7" t="n">
-        <v>6.632736760338747</v>
+        <v>0.03485114933615209</v>
       </c>
       <c r="E7" t="n">
-        <v>6.576458483889291</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0031672444001213987</v>
+        <v>0.03922071315328157</v>
       </c>
     </row>
   </sheetData>
@@ -5165,128 +4469,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.035551495508698</v>
+        <v>0.03945438678575369</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9942121685915106</v>
+        <v>-0.061599772350456355</v>
       </c>
       <c r="D2" t="n">
-        <v>6.387516817309723</v>
+        <v>0.03511416146483939</v>
       </c>
       <c r="E2" t="n">
-        <v>6.464050921787226</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.005857469148173443</v>
+        <v>0.07510747248680527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03640249917466459</v>
+        <v>0.04019156010520536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9979063728707946</v>
+        <v>-0.05984246097361613</v>
       </c>
       <c r="D3" t="n">
-        <v>6.486920108587473</v>
+        <v>0.03569694411408677</v>
       </c>
       <c r="E3" t="n">
-        <v>6.548392070324112</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.003778802079750788</v>
+        <v>0.08434114843375085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03741048246979574</v>
+        <v>0.041058946893622106</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0017908848625274</v>
+        <v>-0.0574714223020929</v>
       </c>
       <c r="D4" t="n">
-        <v>6.597529969026546</v>
+        <v>0.03621174113454251</v>
       </c>
       <c r="E4" t="n">
-        <v>6.594321002124131</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.029746858079428E-5</v>
+        <v>0.045928931888399305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.037582806242714276</v>
+        <v>0.041224371100797366</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0022652011645536</v>
+        <v>-0.05689756504483815</v>
       </c>
       <c r="D5" t="n">
-        <v>6.646841271980297</v>
+        <v>0.038611126711237224</v>
       </c>
       <c r="E5" t="n">
-        <v>6.667571463912548</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.297408575479602E-4</v>
+        <v>0.07325046173959393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.038298504867829895</v>
+        <v>0.04186421835675257</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0045430316931876</v>
+        <v>-0.056531866045635336</v>
       </c>
       <c r="D6" t="n">
-        <v>6.736160957257526</v>
+        <v>0.037723233065908905</v>
       </c>
       <c r="E6" t="n">
-        <v>6.752831307808846</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.7790058750392244E-4</v>
+        <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03922267392275467</v>
+        <v>0.04266463471972779</v>
       </c>
       <c r="C7" t="n">
-        <v>1.007262687128992</v>
+        <v>-0.05444006784395138</v>
       </c>
       <c r="D7" t="n">
-        <v>6.841097682755079</v>
+        <v>0.03802308303068024</v>
       </c>
       <c r="E7" t="n">
-        <v>6.810156374494487</v>
-      </c>
-      <c r="F7" t="n">
-        <v>9.573645568769543E-4</v>
+        <v>0.05732506661926884</v>
       </c>
     </row>
   </sheetData>
@@ -5316,128 +4599,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04239044848671462</v>
+        <v>0.01976519151033411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9271012978421641</v>
+        <v>0.5715529706857095</v>
       </c>
       <c r="D2" t="n">
-        <v>6.327334984382252</v>
+        <v>0.05683095739146774</v>
       </c>
       <c r="E2" t="n">
-        <v>6.82219414333853</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.24488558720291512</v>
+        <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04241429654492918</v>
+        <v>0.019550389119761997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9304302069545802</v>
+        <v>0.5701585834051845</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3899898052157225</v>
+        <v>0.044101126632680815</v>
       </c>
       <c r="E3" t="n">
-        <v>6.852723348384975</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2141223319739707</v>
+        <v>0.030529205034822482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04220332381043423</v>
+        <v>0.019283122612819798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9329383118386224</v>
+        <v>0.5701850469244433</v>
       </c>
       <c r="D4" t="n">
-        <v>6.435371475949825</v>
+        <v>0.03669041881816601</v>
       </c>
       <c r="E4" t="n">
-        <v>6.899606934307215</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.21551456079629577</v>
+        <v>0.04688358589884967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04230378473933233</v>
+        <v>0.019505618187326386</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9362849009541291</v>
+        <v>0.5695725573884155</v>
       </c>
       <c r="D5" t="n">
-        <v>6.502301579849585</v>
+        <v>0.04620922210727364</v>
       </c>
       <c r="E5" t="n">
-        <v>6.962581733751178</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.21185782007567397</v>
+        <v>0.06297479916139004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04269868489793559</v>
+        <v>0.019809607597339778</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9404787304349574</v>
+        <v>0.5698576549505429</v>
       </c>
       <c r="D6" t="n">
-        <v>6.590858714405869</v>
+        <v>0.05569627896843092</v>
       </c>
       <c r="E6" t="n">
-        <v>6.99987751815379</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.16729638181938047</v>
+        <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.042620719310153876</v>
+        <v>0.019542186505937233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9431457709292153</v>
+        <v>0.5681779502366173</v>
       </c>
       <c r="D7" t="n">
-        <v>6.644525597579392</v>
+        <v>0.04073282903407659</v>
       </c>
       <c r="E7" t="n">
-        <v>7.0400593079539515</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.15644691604266595</v>
+        <v>0.04018178963282715</v>
       </c>
     </row>
   </sheetData>
@@ -5467,128 +4729,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.026644932766602212</v>
+        <v>0.035480005817469365</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0169651256291083</v>
+        <v>-0.3511931632900916</v>
       </c>
       <c r="D2" t="n">
-        <v>6.051548269339589</v>
+        <v>0.021031236595092782</v>
       </c>
       <c r="E2" t="n">
-        <v>5.942235145375354</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.011949359070820325</v>
+        <v>0.017839918128331966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.026438236486041246</v>
+        <v>0.03543521145925214</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0146505128057768</v>
+        <v>-0.3519144962895231</v>
       </c>
       <c r="D3" t="n">
-        <v>6.055730173953654</v>
+        <v>0.029157085657273863</v>
       </c>
       <c r="E3" t="n">
-        <v>5.985294634784485</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004961165178051494</v>
+        <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0267737266537013</v>
+        <v>0.035754521026141656</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0151745994072487</v>
+        <v>-0.35369629760856763</v>
       </c>
       <c r="D4" t="n">
-        <v>6.102892809855396</v>
+        <v>0.020524539027066482</v>
       </c>
       <c r="E4" t="n">
-        <v>6.019696061611186</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0069216989184104185</v>
+        <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.026916589749943255</v>
+        <v>0.03592869803830362</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0147534546854633</v>
+        <v>-0.3502040885820191</v>
       </c>
       <c r="D5" t="n">
-        <v>6.135423964426372</v>
+        <v>0.023881177748838765</v>
       </c>
       <c r="E5" t="n">
-        <v>6.05987785117818</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.005707215226908691</v>
+        <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.027170644021793516</v>
+        <v>0.03618518818904423</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0148613958916108</v>
+        <v>-0.3482906319662047</v>
       </c>
       <c r="D6" t="n">
-        <v>6.177106739001136</v>
+        <v>0.022190247284291916</v>
       </c>
       <c r="E6" t="n">
-        <v>6.1228526502464</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0029435061466067986</v>
+        <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.027866291414870556</v>
+        <v>0.0367196014092085</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0168431610147062</v>
+        <v>-0.34009225763026724</v>
       </c>
       <c r="D7" t="n">
-        <v>6.253847134718691</v>
+        <v>0.015302359788599909</v>
       </c>
       <c r="E7" t="n">
-        <v>6.187703622705108</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.004374964181490989</v>
+        <v>0.06485097231961667</v>
       </c>
     </row>
   </sheetData>
@@ -5618,128 +4859,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04183768731051198</v>
+        <v>0.04188712013746137</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9816048926381878</v>
+        <v>0.052007577295698215</v>
       </c>
       <c r="D2" t="n">
-        <v>6.632377006662695</v>
+        <v>0.04491754488065499</v>
       </c>
       <c r="E2" t="n">
-        <v>6.790079582264724</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.024870102351513584</v>
+        <v>0.07603468627599774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.042530276396323424</v>
+        <v>0.042398956720263635</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9838182525730522</v>
+        <v>0.05462760599105454</v>
       </c>
       <c r="D3" t="n">
-        <v>6.722734505851965</v>
+        <v>0.046552549603802285</v>
       </c>
       <c r="E3" t="n">
-        <v>6.853992908090262</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.017228768158150744</v>
+        <v>0.06391332574365283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.042959943119530095</v>
+        <v>0.04261093928893976</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9854529435442171</v>
+        <v>0.057625288708880396</v>
       </c>
       <c r="D4" t="n">
-        <v>6.797247429428268</v>
+        <v>0.04629396313726247</v>
       </c>
       <c r="E4" t="n">
-        <v>6.912261816271977</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.013228309181034448</v>
+        <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432648232028529</v>
+        <v>0.04278567717363471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9867753965772353</v>
+        <v>0.058909771898343566</v>
       </c>
       <c r="D5" t="n">
-        <v>6.864114718200314</v>
+        <v>0.04621828525998362</v>
       </c>
       <c r="E5" t="n">
-        <v>6.944729006090494</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0064986634120408025</v>
+        <v>0.0324671901374991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0430646010927349</v>
+        <v>0.042571960309859644</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9869163972352001</v>
+        <v>0.05785905448829931</v>
       </c>
       <c r="D6" t="n">
-        <v>6.896931531558357</v>
+        <v>0.04445048123310718</v>
       </c>
       <c r="E6" t="n">
-        <v>6.979130433245449</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.006756659438564232</v>
+        <v>0.034401426717336925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04290809699184689</v>
+        <v>0.042361374493497125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9871423133297162</v>
+        <v>0.05842436601469336</v>
       </c>
       <c r="D7" t="n">
-        <v>6.932303057895584</v>
+        <v>0.04437125603945847</v>
       </c>
       <c r="E7" t="n">
-        <v>7.023147318038512</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.008252679600915858</v>
+        <v>0.0440168854167684</v>
       </c>
     </row>
   </sheetData>
@@ -5769,128 +4989,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.021872425660502782</v>
+        <v>0.021579410295774298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9740376066987438</v>
+        <v>0.0313057077613452</v>
       </c>
       <c r="D2" t="n">
-        <v>5.586987839674594</v>
+        <v>0.02322585416965822</v>
       </c>
       <c r="E2" t="n">
-        <v>5.7603338426144095</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.03004883673521068</v>
+        <v>0.04688358589884878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.022423829185409236</v>
+        <v>0.021964027684852387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.980744381005639</v>
+        <v>0.03530006116720358</v>
       </c>
       <c r="D3" t="n">
-        <v>5.671838878046112</v>
+        <v>0.023619021134819593</v>
       </c>
       <c r="E3" t="n">
-        <v>5.901833404800607</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.05289748233702399</v>
+        <v>0.14149956227370009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02496213775392611</v>
+        <v>0.023917558707206202</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0018809717798385</v>
+        <v>0.051099085741451195</v>
       </c>
       <c r="D4" t="n">
-        <v>5.9378967246382715</v>
+        <v>0.031148056972207815</v>
       </c>
       <c r="E4" t="n">
-        <v>6.089971347046493</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.0231266907806032</v>
+        <v>0.1881379421153948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02851686798555624</v>
+        <v>0.02459251580220318</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0295988968748095</v>
+        <v>0.14510353841934645</v>
       </c>
       <c r="D5" t="n">
-        <v>6.298744648903823</v>
+        <v>0.051891996914081154</v>
       </c>
       <c r="E5" t="n">
-        <v>6.134944712663667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.026830419112279347</v>
+        <v>0.0449733656427318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.028806043489927213</v>
+        <v>0.02460253922626027</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0278019154908313</v>
+        <v>0.14008611727110665</v>
       </c>
       <c r="D6" t="n">
-        <v>6.334313970595992</v>
+        <v>0.030902683399764357</v>
       </c>
       <c r="E6" t="n">
-        <v>5.905531548368554</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.18385436561122884</v>
+        <v>-0.22941316432780567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.023438029561978362</v>
+        <v>0.020337075686848193</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9835334988819986</v>
+        <v>0.12048792415426332</v>
       </c>
       <c r="D7" t="n">
-        <v>5.831726136086929</v>
+        <v>-0.0073044402566700035</v>
       </c>
       <c r="E7" t="n">
-        <v>5.966626647795255</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.018198148059168306</v>
+        <v>0.06109509935981183</v>
       </c>
     </row>
   </sheetData>
@@ -5920,128 +5119,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02107811160098388</v>
+        <v>0.020497887627374017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9707353875135266</v>
+        <v>0.09448059206931814</v>
       </c>
       <c r="D2" t="n">
-        <v>5.52964010746172</v>
+        <v>0.022922991537264896</v>
       </c>
       <c r="E2" t="n">
-        <v>5.561459080646307</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0010124470545214408</v>
+        <v>-0.1131686981056399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01845073176404811</v>
+        <v>0.017804664245545183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.962698658055992</v>
+        <v>0.09314297890821707</v>
       </c>
       <c r="D3" t="n">
-        <v>5.3724599255355585</v>
+        <v>0.00726379458482118</v>
       </c>
       <c r="E3" t="n">
-        <v>5.5733876515647465</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.04037195108726042</v>
+        <v>0.0119285708652761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01832603900278747</v>
+        <v>0.01792159867229829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9631477025903012</v>
+        <v>0.09178472881134223</v>
       </c>
       <c r="D4" t="n">
-        <v>5.386321551252528</v>
+        <v>0.019016459314274536</v>
       </c>
       <c r="E4" t="n">
-        <v>5.6010028186760366</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.046088046582564095</v>
+        <v>0.0276151670329714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01849794486067229</v>
+        <v>0.01808932266661702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9643885857917561</v>
+        <v>0.0916577532193486</v>
       </c>
       <c r="D5" t="n">
-        <v>5.420041132179295</v>
+        <v>0.020620466831636205</v>
       </c>
       <c r="E5" t="n">
-        <v>5.63636996231507</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.046798162747912646</v>
+        <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.018806881714207642</v>
+        <v>0.018362165724290808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9660591377026526</v>
+        <v>0.09194494500194822</v>
       </c>
       <c r="D6" t="n">
-        <v>5.463873587281436</v>
+        <v>0.021613995819286632</v>
       </c>
       <c r="E6" t="n">
-        <v>5.671737106446986</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0432072425998867</v>
+        <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01910687016774425</v>
+        <v>0.018607429911453668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9677820177802718</v>
+        <v>0.09243843028269438</v>
       </c>
       <c r="D7" t="n">
-        <v>5.5081120513642485</v>
+        <v>0.021876713171355228</v>
       </c>
       <c r="E7" t="n">
-        <v>5.703235773242213</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.03807326683950914</v>
+        <v>0.03149866705937043</v>
       </c>
     </row>
   </sheetData>
@@ -6071,128 +5249,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03083541667112192</v>
+        <v>0.01609919859504251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9754378416053365</v>
+        <v>0.4788822263574417</v>
       </c>
       <c r="D2" t="n">
-        <v>6.0428117218003665</v>
+        <v>0.030254383620932468</v>
       </c>
       <c r="E2" t="n">
-        <v>6.195828963466989</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.023414276247261674</v>
+        <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.030878074289822022</v>
+        <v>0.016147180024233543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9769070386105122</v>
+        <v>0.47876268717849646</v>
       </c>
       <c r="D3" t="n">
-        <v>6.083626998727598</v>
+        <v>0.031691259219598644</v>
       </c>
       <c r="E3" t="n">
-        <v>6.217590455171931</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0179462076625126</v>
+        <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.030706186998631195</v>
+        <v>0.0159657976237863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9774414991202873</v>
+        <v>0.47833565340801276</v>
       </c>
       <c r="D4" t="n">
-        <v>6.108037122417873</v>
+        <v>0.026375095014229417</v>
       </c>
       <c r="E4" t="n">
-        <v>6.242283067752576</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.01802197383880804</v>
+        <v>0.024692612590372143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.030597679595827914</v>
+        <v>0.0159172541559224</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9781748745869954</v>
+        <v>0.478857712030782</v>
       </c>
       <c r="D5" t="n">
-        <v>6.136642136531228</v>
+        <v>0.027741502125010482</v>
       </c>
       <c r="E5" t="n">
-        <v>6.259140184880019</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.015005771849262729</v>
+        <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.030343360172311776</v>
+        <v>0.015642072079566458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9782984863644275</v>
+        <v>0.4811179501789409</v>
       </c>
       <c r="D6" t="n">
-        <v>6.153650728983197</v>
+        <v>0.023752333688489963</v>
       </c>
       <c r="E6" t="n">
-        <v>6.27205641013769</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.014019905329659436</v>
+        <v>0.012916225266547343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.030024708995989156</v>
+        <v>0.015289202756037276</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9781593828816032</v>
+        <v>0.48608710624240614</v>
       </c>
       <c r="D7" t="n">
-        <v>6.165095536534875</v>
+        <v>0.021567613319428323</v>
       </c>
       <c r="E7" t="n">
-        <v>6.275051919142152</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01209040607607787</v>
+        <v>0.002995508979797279</v>
       </c>
     </row>
   </sheetData>
@@ -6222,128 +5379,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03957944497001921</v>
+        <v>0.028221105586658097</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0240988427982727</v>
+        <v>0.2961107167508301</v>
       </c>
       <c r="D2" t="n">
-        <v>6.752813946957281</v>
+        <v>0.038407736709178575</v>
       </c>
       <c r="E2" t="n">
-        <v>6.535057606833476</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.047417823664114324</v>
+        <v>-0.020202707317519497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.038245455808024464</v>
+        <v>0.02697354349024651</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0178525448668883</v>
+        <v>0.298042761192961</v>
       </c>
       <c r="D3" t="n">
-        <v>6.689970471775194</v>
+        <v>0.02095227281775976</v>
       </c>
       <c r="E3" t="n">
-        <v>6.540045148438403</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.022477602577641257</v>
+        <v>0.004987541511038529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.037525853767285275</v>
+        <v>0.026415285921047735</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0144631997159639</v>
+        <v>0.30452314164778094</v>
       </c>
       <c r="D4" t="n">
-        <v>6.6721609813389735</v>
+        <v>0.02793410773108791</v>
       </c>
       <c r="E4" t="n">
-        <v>6.583104637880034</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007931032310276642</v>
+        <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03762220344818203</v>
+        <v>0.026832046523468083</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0138309332645803</v>
+        <v>0.3011398896425276</v>
       </c>
       <c r="D5" t="n">
-        <v>6.711777322248484</v>
+        <v>0.03979897642765088</v>
       </c>
       <c r="E5" t="n">
-        <v>6.6097465688053045</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.010410274648182788</v>
+        <v>0.026641930946420977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03738806554097006</v>
+        <v>0.026603361060706578</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0123430847059969</v>
+        <v>0.3006157489391347</v>
       </c>
       <c r="D6" t="n">
-        <v>6.728719296130211</v>
+        <v>0.03461234508534963</v>
       </c>
       <c r="E6" t="n">
-        <v>6.657583898173488</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.005060244842461299</v>
+        <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.037579510763883855</v>
+        <v>0.02688394793337251</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0121391432277334</v>
+        <v>0.2996545948460998</v>
       </c>
       <c r="D7" t="n">
-        <v>6.775980773427952</v>
+        <v>0.04121862349749239</v>
       </c>
       <c r="E7" t="n">
-        <v>6.703512830085193</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.005251602812329211</v>
+        <v>0.04592893188839842</v>
       </c>
     </row>
   </sheetData>
@@ -6373,128 +5509,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04167629551393511</v>
+        <v>0.01930240531152792</v>
       </c>
       <c r="C2" t="n">
-        <v>1.015098988523436</v>
+        <v>0.5590784180596327</v>
       </c>
       <c r="D2" t="n">
-        <v>6.814014642982394</v>
+        <v>0.053985053530487145</v>
       </c>
       <c r="E2" t="n">
-        <v>6.747638563386189</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.004405783942561765</v>
+        <v>0.07603468627599685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04239229018718974</v>
+        <v>0.018682996890686098</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0162336227445112</v>
+        <v>0.5847361751976745</v>
       </c>
       <c r="D3" t="n">
-        <v>6.8995694724277055</v>
+        <v>0.06314322852606762</v>
       </c>
       <c r="E3" t="n">
-        <v>6.797380655223717</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.010442554361550251</v>
+        <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04252322892236756</v>
+        <v>0.01942969644859235</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0154491887161636</v>
+        <v>0.5607065024012883</v>
       </c>
       <c r="D4" t="n">
-        <v>6.944917900664235</v>
+        <v>0.04732041081705732</v>
       </c>
       <c r="E4" t="n">
-        <v>6.867839118861663</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.005941138604168538</v>
+        <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04307690111102781</v>
+        <v>0.019485992718032384</v>
       </c>
       <c r="C5" t="n">
-        <v>1.015992133948883</v>
+        <v>0.5699258027851268</v>
       </c>
       <c r="D5" t="n">
-        <v>7.0207474231009055</v>
+        <v>0.059642089175945066</v>
       </c>
       <c r="E5" t="n">
-        <v>6.9354977676759</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.007267503750082096</v>
+        <v>0.0676586484738193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04355086325550264</v>
+        <v>0.019157793178183787</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0162353784485423</v>
+        <v>0.581156405079776</v>
       </c>
       <c r="D6" t="n">
-        <v>7.091649061918641</v>
+        <v>0.05847805009778488</v>
       </c>
       <c r="E6" t="n">
-        <v>7.00315641555886</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.00783094845975731</v>
+        <v>0.06765864847381131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04400555872176743</v>
+        <v>0.018852656737035404</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0163852128591462</v>
+        <v>0.592166859748521</v>
       </c>
       <c r="D7" t="n">
-        <v>7.161910182835455</v>
+        <v>0.05891786613860131</v>
       </c>
       <c r="E7" t="n">
-        <v>7.07081506404117</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.008298320668144857</v>
+        <v>0.06765864847381486</v>
       </c>
     </row>
   </sheetData>
@@ -6524,128 +5639,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03430802803400387</v>
+        <v>0.030015909524611084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9463192075018001</v>
+        <v>0.0957237769668563</v>
       </c>
       <c r="D2" t="n">
-        <v>6.04796621308713</v>
+        <v>0.03377026432297703</v>
       </c>
       <c r="E2" t="n">
-        <v>6.402625584235793</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.12578326954356492</v>
+        <v>0.047837329414158525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03457730359218592</v>
+        <v>0.030285145780122823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9493907674357063</v>
+        <v>0.09606971093175187</v>
       </c>
       <c r="D3" t="n">
-        <v>6.1131709206132925</v>
+        <v>0.03488086418868802</v>
       </c>
       <c r="E3" t="n">
-        <v>6.449509170084042</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.11312341805704806</v>
+        <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.034822261605879465</v>
+        <v>0.030489539693880074</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9523930236438085</v>
+        <v>0.09694797033674585</v>
       </c>
       <c r="D4" t="n">
-        <v>6.17728980112069</v>
+        <v>0.03503480818888211</v>
       </c>
       <c r="E4" t="n">
-        <v>6.488729883249487</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.09699492475639199</v>
+        <v>0.03922071315328246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03491637379092892</v>
+        <v>0.030560197804024445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9548563118607172</v>
+        <v>0.09722540482210923</v>
       </c>
       <c r="D5" t="n">
-        <v>6.230721058770956</v>
+        <v>0.03437344751776416</v>
       </c>
       <c r="E5" t="n">
-        <v>6.546054949921305</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0994354629080201</v>
+        <v>0.05732506661926884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03534620990136427</v>
+        <v>0.030975812168177026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9584016278974493</v>
+        <v>0.09771599601640857</v>
       </c>
       <c r="D6" t="n">
-        <v>6.3090959302120995</v>
+        <v>0.03657738814958585</v>
       </c>
       <c r="E6" t="n">
-        <v>6.597698183074371</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.08329126035717856</v>
+        <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03566058116653187</v>
+        <v>0.031187769850008557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9615204668501948</v>
+        <v>0.09958119185425746</v>
       </c>
       <c r="D7" t="n">
-        <v>6.379482418292882</v>
+        <v>0.036330464558475946</v>
       </c>
       <c r="E7" t="n">
-        <v>6.646488347204846</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07129216607414052</v>
+        <v>0.04879016416943127</v>
       </c>
     </row>
   </sheetData>
@@ -6675,128 +5769,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0820173381233389</v>
+        <v>0.03159259832834741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9828114761255042</v>
+        <v>0.6228568615737222</v>
       </c>
       <c r="D2" t="n">
-        <v>8.667420192625723</v>
+        <v>0.08297905023515115</v>
       </c>
       <c r="E2" t="n">
-        <v>8.793823043416925</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01597768068814278</v>
+        <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08154720260756199</v>
+        <v>0.031096947396523862</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9829183909781217</v>
+        <v>0.622874391295146</v>
       </c>
       <c r="D3" t="n">
-        <v>8.725157598989254</v>
+        <v>0.06739115807567819</v>
       </c>
       <c r="E3" t="n">
-        <v>8.837839928792334</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01269730744985017</v>
+        <v>0.04401688541677373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08081730282178452</v>
+        <v>0.030334549016179203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9827768061949429</v>
+        <v>0.6265767856607254</v>
       </c>
       <c r="D4" t="n">
-        <v>8.766441401702457</v>
+        <v>0.05791450759541775</v>
       </c>
       <c r="E4" t="n">
-        <v>8.94489900105888</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.03184711476805791</v>
+        <v>0.10705907229340816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08132322754156633</v>
+        <v>0.0322629480634122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9837762279433604</v>
+        <v>0.6144964229429171</v>
       </c>
       <c r="D5" t="n">
-        <v>8.881102226137605</v>
+        <v>0.09805036503129869</v>
       </c>
       <c r="E5" t="n">
-        <v>8.985080790698852</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.010811541888217454</v>
+        <v>0.0401817896328307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08055248071099855</v>
+        <v>0.03195227904525543</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9835702959539293</v>
+        <v>0.6049559379956011</v>
       </c>
       <c r="D6" t="n">
-        <v>8.918011053188634</v>
+        <v>0.05626049128292645</v>
       </c>
       <c r="E6" t="n">
-        <v>8.967934631887584</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0024923637101102354</v>
+        <v>-0.017146158834970393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07875300362945438</v>
+        <v>0.02901487064020187</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9823989058357837</v>
+        <v>0.6244114500926701</v>
       </c>
       <c r="D7" t="n">
-        <v>8.888842173602649</v>
+        <v>0.01830861273853876</v>
       </c>
       <c r="E7" t="n">
-        <v>9.010035807935298</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.014687897002755721</v>
+        <v>0.04210117601863672</v>
       </c>
     </row>
   </sheetData>
@@ -6826,128 +5899,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04773569963556137</v>
+        <v>0.05299603396579888</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9920570836275397</v>
+        <v>-0.08514537926815491</v>
       </c>
       <c r="D2" t="n">
-        <v>6.993046100180997</v>
+        <v>0.05006691144058582</v>
       </c>
       <c r="E2" t="n">
-        <v>6.981735287734606</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.279344781974332E-4</v>
+        <v>-0.01918281941677158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.046375959239173016</v>
+        <v>0.05073021665922254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9895292504110805</v>
+        <v>-0.06676233734742487</v>
       </c>
       <c r="D3" t="n">
-        <v>6.955007245079788</v>
+        <v>0.052010906520399774</v>
       </c>
       <c r="E3" t="n">
-        <v>7.020956000745012</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004349238373791453</v>
+        <v>0.03922071315327713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04623836234802299</v>
+        <v>0.04977069469264435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9896994363889546</v>
+        <v>-0.051553232872445065</v>
       </c>
       <c r="D4" t="n">
-        <v>6.994874559197011</v>
+        <v>0.047748740134030083</v>
       </c>
       <c r="E4" t="n">
-        <v>7.049543458456052</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002988688546195168</v>
+        <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04589871888997166</v>
+        <v>0.04928587084926724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9894550324286108</v>
+        <v>-0.049049055335069536</v>
       </c>
       <c r="D5" t="n">
-        <v>7.021104970183505</v>
+        <v>0.047883683096248825</v>
       </c>
       <c r="E5" t="n">
-        <v>7.07715862466174</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003142012180365313</v>
+        <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04555368544709507</v>
+        <v>0.04860912998212169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9892088297511292</v>
+        <v>-0.042667562756217414</v>
       </c>
       <c r="D6" t="n">
-        <v>7.046341486511847</v>
+        <v>0.04743085810971888</v>
       </c>
       <c r="E6" t="n">
-        <v>7.088098565288738</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0017436536279795039</v>
+        <v>0.010939940038332985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04490964662223909</v>
+        <v>0.04739181232630681</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9883912881448612</v>
+        <v>-0.03083731513837651</v>
       </c>
       <c r="D7" t="n">
-        <v>7.050724518065717</v>
+        <v>0.0470544539477498</v>
       </c>
       <c r="E7" t="n">
-        <v>7.100027136101207</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0024307481451533654</v>
+        <v>0.011928570865272548</v>
       </c>
     </row>
   </sheetData>
@@ -6977,128 +6029,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.051719187645978805</v>
+        <v>0.020569759145421265</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0098165092731626</v>
+        <v>0.62133246286068</v>
       </c>
       <c r="D2" t="n">
-        <v>7.299690848519216</v>
+        <v>0.054425037504782066</v>
       </c>
       <c r="E2" t="n">
-        <v>7.267354236623107</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.001045656468919566</v>
+        <v>0.08984070399979327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05251728432203326</v>
+        <v>0.02120819650553211</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0111822723025117</v>
+        <v>0.6226906790933504</v>
       </c>
       <c r="D3" t="n">
-        <v>7.401137054937871</v>
+        <v>0.07715116548938807</v>
       </c>
       <c r="E3" t="n">
-        <v>7.30465002153356</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.009309747615164643</v>
+        <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.052179349133500516</v>
+        <v>0.02139652399030314</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0094983817872023</v>
+        <v>0.6041119176225664</v>
       </c>
       <c r="D4" t="n">
-        <v>7.4262117253934825</v>
+        <v>0.04392735203105585</v>
       </c>
       <c r="E4" t="n">
-        <v>7.340017165508447</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.007429502153774903</v>
+        <v>0.035367143837293114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.051821189188479694</v>
+        <v>0.02115167655400807</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0079674294489298</v>
+        <v>0.6056573481306331</v>
       </c>
       <c r="D5" t="n">
-        <v>7.450319423617049</v>
+        <v>0.04257204710145768</v>
       </c>
       <c r="E5" t="n">
-        <v>7.3897592570259425</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003667533777542615</v>
+        <v>0.04974209189481371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05176826521066626</v>
+        <v>0.021360896703390288</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0073250696719487</v>
+        <v>0.6042244989973502</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4956580236532515</v>
+        <v>0.051416287257614254</v>
       </c>
       <c r="E6" t="n">
-        <v>7.440452371456516</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0030476640344669465</v>
+        <v>0.05069311431551515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.051737263135973655</v>
+        <v>0.02134666715041838</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0067955337147498</v>
+        <v>0.604240739425373</v>
       </c>
       <c r="D7" t="n">
-        <v>7.5427514795357125</v>
+        <v>0.05197751202820022</v>
       </c>
       <c r="E7" t="n">
-        <v>7.486381303604506</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0031775967345152004</v>
+        <v>0.045928931888399305</v>
       </c>
     </row>
   </sheetData>
@@ -7128,128 +6159,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.030334160372349542</v>
+        <v>0.02883114379605561</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0373338111151567</v>
+        <v>0.040869582784318126</v>
       </c>
       <c r="D2" t="n">
-        <v>6.346049798266989</v>
+        <v>0.032837741859732435</v>
       </c>
       <c r="E2" t="n">
-        <v>6.142900199080433</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04126975964965843</v>
+        <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.030806993472825346</v>
+        <v>0.02887098719228713</v>
       </c>
       <c r="C3" t="n">
-        <v>1.035842197947494</v>
+        <v>0.05412316911431203</v>
       </c>
       <c r="D3" t="n">
-        <v>6.3938822374604</v>
+        <v>0.03182006045914887</v>
       </c>
       <c r="E3" t="n">
-        <v>6.216150660860763</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.031588513320592634</v>
+        <v>0.07325046173959215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.031685239006525784</v>
+        <v>0.02941260675775701</v>
       </c>
       <c r="C4" t="n">
-        <v>1.037139288552124</v>
+        <v>0.06310251095205782</v>
       </c>
       <c r="D4" t="n">
-        <v>6.478699312944474</v>
+        <v>0.034034894821922915</v>
       </c>
       <c r="E4" t="n">
-        <v>6.265892752762417</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.04528663205651936</v>
+        <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.03200021564327591</v>
+        <v>0.02953441038726119</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0346845329087428</v>
+        <v>0.06892096032824074</v>
       </c>
       <c r="D5" t="n">
-        <v>6.515222531791534</v>
+        <v>0.03296268312938741</v>
       </c>
       <c r="E5" t="n">
-        <v>6.311821684507998</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04137190467566034</v>
+        <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.032225982111296674</v>
+        <v>0.029713713694222255</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0321369058868004</v>
+        <v>0.0710063017088638</v>
       </c>
       <c r="D6" t="n">
-        <v>6.546890086068594</v>
+        <v>0.03297495728905573</v>
       </c>
       <c r="E6" t="n">
-        <v>6.340409141462904</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.04263438048525825</v>
+        <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03208819845241091</v>
+        <v>0.029649786225631986</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0281094363384513</v>
+        <v>0.07045820086106824</v>
       </c>
       <c r="D7" t="n">
-        <v>6.550722667037001</v>
+        <v>0.03166400700261123</v>
       </c>
       <c r="E7" t="n">
-        <v>6.375776285277725</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.030606236490662343</v>
+        <v>0.03536714383729134</v>
       </c>
     </row>
   </sheetData>
@@ -7279,128 +6289,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.021869002209162814</v>
+        <v>0.013454475192062486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9448753829115187</v>
+        <v>0.38825353454809264</v>
       </c>
       <c r="D2" t="n">
-        <v>5.414657790493262</v>
+        <v>0.05952911605511055</v>
       </c>
       <c r="E2" t="n">
-        <v>5.850641605922597</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.19008188731632042</v>
+        <v>0.1432341680859066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02411167714816586</v>
+        <v>0.014479280142881404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9468501886203406</v>
+        <v>0.4177070886131555</v>
       </c>
       <c r="D3" t="n">
-        <v>5.563792785265989</v>
+        <v>0.0743092074839728</v>
       </c>
       <c r="E3" t="n">
-        <v>5.988662903918247</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.18051461772358313</v>
+        <v>0.13802129789737272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.026199366006197454</v>
+        <v>0.015088885364637171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9504831126168091</v>
+        <v>0.4438997603852385</v>
       </c>
       <c r="D4" t="n">
-        <v>5.718322323335231</v>
+        <v>0.07635650642934054</v>
       </c>
       <c r="E4" t="n">
-        <v>6.042203670821325</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1048991272494081</v>
+        <v>0.053540766928031225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.026690581945800495</v>
+        <v>0.014874319678208027</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9524010702209188</v>
+        <v>0.4354730273372586</v>
       </c>
       <c r="D5" t="n">
-        <v>5.781291824528795</v>
+        <v>0.03818987953831636</v>
       </c>
       <c r="E5" t="n">
-        <v>6.0629862100383</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.07935172682757767</v>
+        <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0265770706693239</v>
+        <v>0.014587129389900033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.953108571373777</v>
+        <v>0.4339516605085447</v>
       </c>
       <c r="D6" t="n">
-        <v>5.805261195577839</v>
+        <v>0.023605746777741778</v>
       </c>
       <c r="E6" t="n">
-        <v>6.079843326984346</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.07539534688774009</v>
+        <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02639854551308192</v>
+        <v>0.014458411092547306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9536642583337812</v>
+        <v>0.43409033256483154</v>
       </c>
       <c r="D7" t="n">
-        <v>5.824527822727197</v>
+        <v>0.02177592264599483</v>
       </c>
       <c r="E7" t="n">
-        <v>6.08582539871558</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.06827642321740485</v>
+        <v>0.005982071677549605</v>
       </c>
     </row>
   </sheetData>
@@ -7430,128 +6419,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.041463626947889215</v>
+        <v>0.0449701672316286</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0166024995165297</v>
+        <v>-0.09446300767302218</v>
       </c>
       <c r="D2" t="n">
-        <v>6.810913960487016</v>
+        <v>0.04000212621247831</v>
       </c>
       <c r="E2" t="n">
-        <v>6.722809341431544</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.007762423898909871</v>
+        <v>0.06391332574365194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.041921463811345094</v>
+        <v>0.04521731013249389</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0167950841995919</v>
+        <v>-0.08883710848007587</v>
       </c>
       <c r="D3" t="n">
-        <v>6.877640954190035</v>
+        <v>0.039539435080082654</v>
       </c>
       <c r="E3" t="n">
-        <v>6.7857841406166575</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.008437674199854228</v>
+        <v>0.06297479916138915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04233993764887206</v>
+        <v>0.045236343676414374</v>
       </c>
       <c r="C4" t="n">
-        <v>1.016837980258747</v>
+        <v>-0.0782287603658618</v>
       </c>
       <c r="D4" t="n">
-        <v>6.942382977665352</v>
+        <v>0.04030990320372979</v>
       </c>
       <c r="E4" t="n">
-        <v>6.8421644740414465</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.010043748468614692</v>
+        <v>0.05638033343610793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04260509281540945</v>
+        <v>0.04526133384970025</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0164257922919981</v>
+        <v>-0.07145500695103202</v>
       </c>
       <c r="D5" t="n">
-        <v>6.9971575393351495</v>
+        <v>0.04123267673212165</v>
       </c>
       <c r="E5" t="n">
-        <v>6.884265650039197</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.012744578668809646</v>
+        <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.042572218921571425</v>
+        <v>0.045267354961377196</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0152213763153122</v>
+        <v>-0.07120941831874594</v>
       </c>
       <c r="D6" t="n">
-        <v>7.031625867074592</v>
+        <v>0.042269354706555066</v>
       </c>
       <c r="E6" t="n">
-        <v>6.922524362165056</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.011903138373525378</v>
+        <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04246739223104314</v>
+        <v>0.04519273157047727</v>
       </c>
       <c r="C7" t="n">
-        <v>1.01395162976814</v>
+        <v>-0.07120107267485731</v>
       </c>
       <c r="D7" t="n">
-        <v>7.061572251357956</v>
+        <v>0.04246867022858186</v>
       </c>
       <c r="E7" t="n">
-        <v>6.979849428398192</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.006678619792512852</v>
+        <v>0.05732506661927328</v>
       </c>
     </row>
   </sheetData>
@@ -7581,128 +6549,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.024187945161928463</v>
+        <v>0.027357991019478178</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9717549406933293</v>
+        <v>0.025911996298995627</v>
       </c>
       <c r="D2" t="n">
-        <v>5.688663838492003</v>
+        <v>0.02832439925572504</v>
       </c>
       <c r="E2" t="n">
-        <v>5.870261669075992</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.032977772072811225</v>
+        <v>0.0411419433311746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.024526827499202153</v>
+        <v>0.027589818207083477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9739337029151072</v>
+        <v>0.02691382248165025</v>
       </c>
       <c r="D3" t="n">
-        <v>5.741772511943001</v>
+        <v>0.028697105166448824</v>
       </c>
       <c r="E3" t="n">
-        <v>5.909482382131585</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.02812660055867161</v>
+        <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.024817730298096734</v>
+        <v>0.02777020039307771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9759686588709475</v>
+        <v>0.027960479200805244</v>
       </c>
       <c r="D4" t="n">
-        <v>5.792287325408552</v>
+        <v>0.02886683032744079</v>
       </c>
       <c r="E4" t="n">
-        <v>5.954455747848511</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.026298597236665246</v>
+        <v>0.04497336564273091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.025210424019407197</v>
+        <v>0.028045210955225306</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9783766552997596</v>
+        <v>0.029345106354341788</v>
       </c>
       <c r="D5" t="n">
-        <v>5.850910922729863</v>
+        <v>0.029364959153123947</v>
       </c>
       <c r="E5" t="n">
-        <v>6.000384679667285</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.022342404012987392</v>
+        <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.025609313044014283</v>
+        <v>0.028307816993118663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9808053688034861</v>
+        <v>0.031306035012927086</v>
       </c>
       <c r="D6" t="n">
-        <v>5.910818821747873</v>
+        <v>0.029745669742923208</v>
       </c>
       <c r="E6" t="n">
-        <v>5.960603809794156</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0024785450347685253</v>
+        <v>-0.03978087001184427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.024396864792270902</v>
+        <v>0.027238690250317322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.976973372217829</v>
+        <v>0.02285307262178435</v>
       </c>
       <c r="D7" t="n">
-        <v>5.847748069301306</v>
+        <v>0.02632957513897888</v>
       </c>
       <c r="E7" t="n">
-        <v>5.954585737536553</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01141428735394475</v>
+        <v>-0.0060180723255607305</v>
       </c>
     </row>
   </sheetData>
@@ -7732,128 +6679,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.060095476090487016</v>
+        <v>0.04441739826578278</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0126011568463567</v>
+        <v>0.27189297036706894</v>
       </c>
       <c r="D2" t="n">
-        <v>7.744526701741066</v>
+        <v>0.04846550734135271</v>
       </c>
       <c r="E2" t="n">
-        <v>7.628024235422403</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.01357282465833108</v>
+        <v>0.03922071315328335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.059634531315146046</v>
+        <v>0.04398634645015691</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0109908165001824</v>
+        <v>0.27601807395932965</v>
       </c>
       <c r="D3" t="n">
-        <v>7.771496981368021</v>
+        <v>0.054811972154037526</v>
       </c>
       <c r="E3" t="n">
-        <v>7.638964175355809</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.017564944669470606</v>
+        <v>0.010939940038332097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.058616104031578874</v>
+        <v>0.04260872683670696</v>
       </c>
       <c r="C4" t="n">
-        <v>1.008565785157311</v>
+        <v>0.2847470988276406</v>
       </c>
       <c r="D4" t="n">
-        <v>7.763014005337881</v>
+        <v>0.045723843023970374</v>
       </c>
       <c r="E4" t="n">
-        <v>7.64693234526475</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.013474951805334073</v>
+        <v>0.007968169649175572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.05758929743009399</v>
+        <v>0.040869574125570414</v>
       </c>
       <c r="C5" t="n">
-        <v>1.006385080717208</v>
+        <v>0.30211158296473073</v>
       </c>
       <c r="D5" t="n">
-        <v>7.753347922958387</v>
+        <v>0.04327685047161437</v>
       </c>
       <c r="E5" t="n">
-        <v>7.65291441672965</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.010086889173397739</v>
+        <v>0.005982071677548717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.056572442885323856</v>
+        <v>0.03916371800641325</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0044356889908708</v>
+        <v>0.31957369628712473</v>
       </c>
       <c r="D6" t="n">
-        <v>7.743432807841338</v>
+        <v>0.04107543076386202</v>
       </c>
       <c r="E6" t="n">
-        <v>7.663854356563284</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.006332729907813573</v>
+        <v>0.010939940038334761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.05569613585687389</v>
+        <v>0.03781212764577964</v>
       </c>
       <c r="C7" t="n">
-        <v>1.002881022256978</v>
+        <v>0.33363340258286245</v>
       </c>
       <c r="D7" t="n">
-        <v>7.741630227395654</v>
+        <v>0.041462057064821756</v>
       </c>
       <c r="E7" t="n">
-        <v>7.702113068887784</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0015616058165361195</v>
+        <v>0.03825871211709231</v>
       </c>
     </row>
   </sheetData>
@@ -7883,128 +6809,107 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.033123978387560496</v>
+        <v>0.024395260396480337</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9887177275045317</v>
+        <v>0.2805716853352246</v>
       </c>
       <c r="D2" t="n">
-        <v>6.232644934873484</v>
+        <v>0.033776111871801406</v>
       </c>
       <c r="E2" t="n">
-        <v>6.310445570637981</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.006052938925359917</v>
+        <v>0.040181789632833365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03327101250661008</v>
+        <v>0.024523194981627652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.989596979197058</v>
+        <v>0.2805770595098017</v>
       </c>
       <c r="D3" t="n">
-        <v>6.278068886597411</v>
+        <v>0.03579728336264947</v>
       </c>
       <c r="E3" t="n">
-        <v>6.354462456005194</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005835977446861838</v>
+        <v>0.044016885416772844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.03348892911793312</v>
+        <v>0.024672664910872513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9906387137555482</v>
+        <v>0.2809269359391504</v>
       </c>
       <c r="D4" t="n">
-        <v>6.328465443142841</v>
+        <v>0.03703819366059118</v>
       </c>
       <c r="E4" t="n">
-        <v>6.407054906248436</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.006176303711225644</v>
+        <v>0.05259245011917191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.033866888705538875</v>
+        <v>0.02493754430419288</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9920828704607623</v>
+        <v>0.2819447921524292</v>
       </c>
       <c r="D5" t="n">
-        <v>6.390196311296197</v>
+        <v>0.039765711721829806</v>
       </c>
       <c r="E5" t="n">
-        <v>6.4643799728005575</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.005503215634193506</v>
+        <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03432283626087498</v>
+        <v>0.02519900343033894</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9936996759287883</v>
+        <v>0.28399931937619693</v>
       </c>
       <c r="D6" t="n">
-        <v>6.457975120313338</v>
+        <v>0.04147928333340669</v>
       </c>
       <c r="E6" t="n">
-        <v>6.519814679639281</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0038241310976268083</v>
+        <v>0.05543470688810004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03472701867820306</v>
+        <v>0.025388447857846868</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9951217694095709</v>
+        <v>0.286003087049817</v>
       </c>
       <c r="D7" t="n">
-        <v>6.522736538903339</v>
+        <v>0.04124294515754523</v>
       </c>
       <c r="E7" t="n">
-        <v>6.563831565032077</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.001688801172521636</v>
+        <v>0.04401688541677373</v>
       </c>
     </row>
   </sheetData>

--- a/R/benchmark-models/ar1/ar1-results.xlsx
+++ b/R/benchmark-models/ar1/ar1-results.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="12">
   <si>
     <t>Here we used AR(1) models to perform 1-step ahead forecasts (expanding window). Estimation is done by OLS and an intercept is used. The first column of each sheet contains the sample that was used for estimation.</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>AR1.coefficient</t>
+  </si>
+  <si>
+    <t>adjR2</t>
   </si>
   <si>
     <t>one.step.ahead.fcast</t>
@@ -179,10 +182,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.018080095301904343</v>
@@ -191,15 +197,18 @@
         <v>-0.19725698784975612</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0189653099710696</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.012249415007290392</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.018424820392673222</v>
@@ -208,15 +217,18 @@
         <v>-0.19346169425811158</v>
       </c>
       <c r="D3" t="n">
+        <v>0.017802681928556385</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.01214366278087205</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.018874805735385997</v>
@@ -225,15 +237,18 @@
         <v>-0.1872409630697791</v>
       </c>
       <c r="D4" t="n">
+        <v>0.015605430670419973</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.011351128746667178</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.45728485683796105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.012317083850440247</v>
@@ -242,15 +257,18 @@
         <v>-0.33595873861289716</v>
       </c>
       <c r="D5" t="n">
+        <v>0.009304318043977688</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.16594592754050091</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.007513258784119232</v>
@@ -259,15 +277,18 @@
         <v>-0.09002363550216202</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.011296131089278294</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.006617493826267811</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04688358589885411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.008256494457397862</v>
@@ -276,9 +297,12 @@
         <v>-0.08970393162814622</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.011024957022734094</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.004050852473444734</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
@@ -309,10 +333,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.026745880036048116</v>
@@ -321,15 +348,18 @@
         <v>0.20292656081907556</v>
       </c>
       <c r="D2" t="n">
+        <v>0.01972861002303261</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.052621719582936974</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>9.995003330853791E-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02616404371373231</v>
@@ -338,15 +368,18 @@
         <v>0.1890972607626688</v>
       </c>
       <c r="D3" t="n">
+        <v>0.01560304617489916</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.026353046488850132</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.027483161593280122</v>
@@ -355,15 +388,18 @@
         <v>0.18396394856790219</v>
       </c>
       <c r="D4" t="n">
+        <v>0.013892180353860306</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.043167899140756805</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05543470688809826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.027659996245965636</v>
@@ -372,15 +408,18 @@
         <v>0.1857543982743225</v>
       </c>
       <c r="D5" t="n">
+        <v>0.015184342411134089</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03795723686747777</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06672363204290921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.028143734561038636</v>
@@ -389,15 +428,18 @@
         <v>0.1875209081565882</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01617824728860362</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.040655810637231</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.017839918128331078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.027791787942751927</v>
@@ -406,9 +448,12 @@
         <v>0.18544712587807557</v>
       </c>
       <c r="D7" t="n">
+        <v>0.015835191981299124</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.031100149485551103</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.07257069283483553</v>
       </c>
     </row>
@@ -439,10 +484,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02990308329010311</v>
@@ -451,15 +499,18 @@
         <v>0.04017250228247482</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01960225242467506</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03077729686836603</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02977646013399124</v>
@@ -468,15 +519,18 @@
         <v>0.040973206441474064</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01909082622905811</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.030828150020408198</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241544058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.029748287944908445</v>
@@ -485,15 +539,18 @@
         <v>0.04108113536862468</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.018656539303330666</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.030962597101127722</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.034401426717332484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.029815996670841848</v>
@@ -502,15 +559,18 @@
         <v>0.04102925069425711</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.018253835170868093</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.031227461431867398</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.02078253918252848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.029641274444414636</v>
@@ -519,15 +579,18 @@
         <v>0.040295858667519724</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.017926892672304184</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.030478724706065996</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02915540087789335</v>
@@ -536,9 +599,12 @@
         <v>0.04378516750139305</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.017258945168511897</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.029591077780993544</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.021761491781513875</v>
       </c>
     </row>
@@ -569,10 +635,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.006957330985126034</v>
@@ -581,15 +650,18 @@
         <v>0.34387317771473075</v>
       </c>
       <c r="D2" t="n">
+        <v>0.10774200564138936</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03054455215472865</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.007602590309811159</v>
@@ -598,15 +670,18 @@
         <v>0.3565989101152116</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11819974584896942</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03139616477524036</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06952606264861316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.008258442373655823</v>
@@ -615,15 +690,18 @@
         <v>0.36910090933944867</v>
       </c>
       <c r="D4" t="n">
+        <v>0.12835980915554313</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03392057532005042</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08157998699242341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.009040749406132066</v>
@@ -632,15 +710,18 @@
         <v>0.3848210343637029</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1403955391559092</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04043444438393387</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09075436326846287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0098021088563331</v>
@@ -649,15 +730,18 @@
         <v>0.4037871624153072</v>
       </c>
       <c r="D6" t="n">
+        <v>0.15583661787802183</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04644755567731371</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06672363204291099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.010084175424183491</v>
@@ -666,9 +750,12 @@
         <v>0.4119720582365045</v>
       </c>
       <c r="D7" t="n">
+        <v>0.1666534828821794</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03757244744991671</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.023716526617312716</v>
       </c>
     </row>
@@ -699,10 +786,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.021463193619440733</v>
@@ -711,15 +801,18 @@
         <v>0.47811537865993603</v>
       </c>
       <c r="D2" t="n">
+        <v>0.2116972240093965</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.061787993739457814</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.033434776086236795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.021234827881841625</v>
@@ -728,15 +821,18 @@
         <v>0.4700221181723676</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2069544976041212</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03694991215851347</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.021242408322469385</v>
@@ -745,15 +841,18 @@
         <v>0.47000295935314884</v>
       </c>
       <c r="D4" t="n">
+        <v>0.20735266900690785</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.038771537523404995</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02113336276032421</v>
@@ -762,15 +861,18 @@
         <v>0.4701571786636324</v>
       </c>
       <c r="D5" t="n">
+        <v>0.20776507672976063</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03685296275428</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02174377398591994</v>
@@ -779,15 +881,18 @@
         <v>0.46860161223987085</v>
       </c>
       <c r="D6" t="n">
+        <v>0.20572060218888422</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.052572015267646335</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02142556350073001</v>
@@ -796,9 +901,12 @@
         <v>0.4643049408471651</v>
       </c>
       <c r="D7" t="n">
+        <v>0.20241280040760212</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03334322513650852</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.019182819416773356</v>
       </c>
     </row>
@@ -829,10 +937,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.006725910277128835</v>
@@ -841,15 +952,18 @@
         <v>0.6787893077172223</v>
       </c>
       <c r="D2" t="n">
+        <v>0.4505098890681324</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.030077230903070504</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.006924083718800841</v>
@@ -858,15 +972,18 @@
         <v>0.6830176465494615</v>
       </c>
       <c r="D3" t="n">
+        <v>0.453333113800901</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03698839320460356</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04688358589885322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.007025594704063552</v>
@@ -875,15 +992,18 @@
         <v>0.6877483522843759</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4592308176072224</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.039269703655182855</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.007109945031299902</v>
@@ -892,15 +1012,18 @@
         <v>0.6926651467050975</v>
       </c>
       <c r="D5" t="n">
+        <v>0.465868394988756</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0409051912534848</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05826890812397334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.007246192178413476</v>
@@ -909,15 +1032,18 @@
         <v>0.7019446252989948</v>
       </c>
       <c r="D6" t="n">
+        <v>0.4740886023743619</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.048147739058077496</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06297479916139093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.00730485940178805</v>
@@ -926,9 +1052,12 @@
         <v>0.7120715977850568</v>
       </c>
       <c r="D7" t="n">
+        <v>0.4862859821310528</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05214742526083274</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06109509935980828</v>
       </c>
     </row>
@@ -959,10 +1088,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02479423328770069</v>
@@ -971,15 +1103,18 @@
         <v>0.5171616229891947</v>
       </c>
       <c r="D2" t="n">
+        <v>0.2523627802090762</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.050518934262898836</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.017839918128332855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.024078980161001257</v>
@@ -988,15 +1123,18 @@
         <v>0.5183698982156368</v>
       </c>
       <c r="D3" t="n">
+        <v>0.24569454299691051</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.033326656705360454</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.021761491781510323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.023328732858121985</v>
@@ -1005,15 +1143,18 @@
         <v>0.5287582496241461</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2590453134582651</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03483530116172362</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02258338361047081</v>
@@ -1022,15 +1163,18 @@
         <v>0.5386684743276784</v>
       </c>
       <c r="D5" t="n">
+        <v>0.27021846063920174</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.034305613187512726</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.028587456851916215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.022270080096554887</v>
@@ -1039,15 +1183,18 @@
         <v>0.5428341835345969</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2777998758004504</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03778832889609535</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.0225048780801573</v>
@@ -1056,9 +1203,12 @@
         <v>0.5400303277272052</v>
       </c>
       <c r="D7" t="n">
+        <v>0.27801030784332625</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.045758308285249</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04210117601863317</v>
       </c>
     </row>
@@ -1089,10 +1239,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.08993158866647018</v>
@@ -1101,15 +1254,18 @@
         <v>0.20710476814995304</v>
       </c>
       <c r="D2" t="n">
+        <v>0.021851244069929665</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.07062685996119346</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0896892656202797</v>
@@ -1118,15 +1274,18 @@
         <v>0.20790449585013177</v>
       </c>
       <c r="D3" t="n">
+        <v>0.023521691327648253</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.10278200949119107</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07973496801885638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.08917534210110585</v>
@@ -1135,15 +1294,18 @@
         <v>0.2084648260676194</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02419583259735858</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.10579727834066394</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.04186420409870095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.08608435835796156</v>
@@ -1152,15 +1314,18 @@
         <v>0.21074784825429127</v>
       </c>
       <c r="D5" t="n">
+        <v>0.025051992441761706</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.07726156742528185</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0039920212695392365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.08411215484194359</v>
@@ -1169,15 +1334,18 @@
         <v>0.21624811407010996</v>
       </c>
       <c r="D6" t="n">
+        <v>0.02809251599476903</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.08497542191280921</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.09431067947124383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.07983384108598585</v>
@@ -1186,9 +1354,12 @@
         <v>0.22534679325277185</v>
       </c>
       <c r="D7" t="n">
+        <v>0.031796151423145735</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05858123189765103</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.09321238172217683</v>
       </c>
     </row>
@@ -1219,10 +1390,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01035074762146618</v>
@@ -1231,15 +1405,18 @@
         <v>0.736058617521764</v>
       </c>
       <c r="D2" t="n">
+        <v>0.5342781789049046</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02636848117737786</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08342160813907284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.011605114004190606</v>
@@ -1248,15 +1425,18 @@
         <v>0.7330142907028911</v>
       </c>
       <c r="D3" t="n">
+        <v>0.5265171641985416</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.07275434492354763</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.011535359702975475</v>
@@ -1265,15 +1445,18 @@
         <v>0.7322231530955179</v>
       </c>
       <c r="D4" t="n">
+        <v>0.5279453661967559</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.06107658862265279</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.01106491249111581</v>
@@ -1282,15 +1465,18 @@
         <v>0.729199204831971</v>
       </c>
       <c r="D5" t="n">
+        <v>0.5250640086847198</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03332678452666121</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04879016416943216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.011372980893677696</v>
@@ -1299,15 +1485,18 @@
         <v>0.7287760757850503</v>
       </c>
       <c r="D6" t="n">
+        <v>0.524570176433163</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04693008527398483</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.011372181684270882</v>
@@ -1316,9 +1505,12 @@
         <v>0.728774477704691</v>
       </c>
       <c r="D7" t="n">
+        <v>0.5248342717428787</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.045539742510628714</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -1349,10 +1541,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01726034052245415</v>
@@ -1361,15 +1556,18 @@
         <v>0.3450769401810327</v>
       </c>
       <c r="D2" t="n">
+        <v>0.09603014065101856</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.058211148883971865</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.10616019582838998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.01775424063900983</v>
@@ -1378,15 +1576,18 @@
         <v>0.3640002708772674</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11119675553173991</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05639658067692753</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08250122151174377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.018042964618213725</v>
@@ -1395,15 +1596,18 @@
         <v>0.37252430320101665</v>
       </c>
       <c r="D4" t="n">
+        <v>0.1198505422224404</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.048776674675108794</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.10074990310014353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.018726939211033775</v>
@@ -1412,15 +1616,18 @@
         <v>0.384098449587401</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1278229807769743</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05742482078787979</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.09803374027136424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.019162078683175893</v>
@@ -1429,15 +1636,18 @@
         <v>0.3956553946076858</v>
       </c>
       <c r="D6" t="n">
+        <v>0.13763851645535818</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05794965687510989</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.09893994785490534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.01959740689426418</v>
@@ -1446,9 +1656,12 @@
         <v>0.4064718026438182</v>
       </c>
       <c r="D7" t="n">
+        <v>0.14679527815290605</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05981370585233293</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07325046173959304</v>
       </c>
     </row>
@@ -1479,10 +1692,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04394828871375348</v>
@@ -1491,15 +1707,18 @@
         <v>-0.13626062506520248</v>
       </c>
       <c r="D2" t="n">
+        <v>2.7788340061418726E-4</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.039129139587713364</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04373738957179487</v>
@@ -1508,15 +1727,18 @@
         <v>-0.1362587759903005</v>
       </c>
       <c r="D3" t="n">
+        <v>7.016898871659016E-4</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0398420976924776</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.043606347239654855</v>
@@ -1525,15 +1747,18 @@
         <v>-0.13610548179600895</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0010704278381946652</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.039055690931695794</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.027615167032972288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04338372602697702</v>
@@ -1542,15 +1767,18 @@
         <v>-0.13603140022661292</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0014362027267607047</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03962719618799</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04333754776431329</v>
@@ -1559,15 +1787,18 @@
         <v>-0.13596903005906982</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0018047022521221479</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03826647608742095</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03729578474369788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04331983432932592</v>
@@ -1576,9 +1807,12 @@
         <v>-0.13597649463448677</v>
       </c>
       <c r="D7" t="n">
+        <v>0.002176431292033043</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03824848425523551</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03246719013750177</v>
       </c>
     </row>
@@ -1609,10 +1843,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.024480492567732028</v>
@@ -1621,15 +1858,18 @@
         <v>0.30072037221284786</v>
       </c>
       <c r="D2" t="n">
+        <v>0.07304069625329102</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.045107742348389365</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06859279146561192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.024889187238960456</v>
@@ -1638,15 +1878,18 @@
         <v>0.3023400560769144</v>
       </c>
       <c r="D3" t="n">
+        <v>0.07443746139893148</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04562753565714566</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.024991607553419296</v>
@@ -1655,15 +1898,18 @@
         <v>0.30274595451983505</v>
       </c>
       <c r="D4" t="n">
+        <v>0.07522809396054553</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04062638746846306</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05448818528406907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02524260054335498</v>
@@ -1672,15 +1918,18 @@
         <v>0.30315032513430284</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07582235601799847</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04176071162819865</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02524856418936679</v>
@@ -1689,15 +1938,18 @@
         <v>0.30316217699118697</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07623267539870893</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03801204836506558</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.038258712117089644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.025253063570368866</v>
@@ -1706,9 +1958,12 @@
         <v>0.3031639374651326</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07657732683007634</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.036851725378130744</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
@@ -1739,10 +1994,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04341706613421537</v>
@@ -1751,15 +2009,18 @@
         <v>-0.09005636326009525</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012821093520211324</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.037745784744705926</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.04395188752918244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04334846764472306</v>
@@ -1768,15 +2029,18 @@
         <v>-0.13005259207091413</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.0052718564779870025</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.049064524544302525</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04375362202517977</v>
@@ -1785,15 +2049,18 @@
         <v>-0.13801903210176025</v>
       </c>
       <c r="D4" t="n">
+        <v>-5.48757434279068E-4</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03623321543129106</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0438380512089438</v>
@@ -1802,15 +2069,18 @@
         <v>-0.13483716424717151</v>
       </c>
       <c r="D5" t="n">
+        <v>-9.804009618752385E-4</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03751640143660412</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.00895974137147082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04347185411811161</v>
@@ -1819,15 +2089,18 @@
         <v>-0.13937880303219075</v>
       </c>
       <c r="D6" t="n">
+        <v>4.155549661160052E-4</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04222305609027801</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.043467299058874406</v>
@@ -1836,9 +2109,12 @@
         <v>-0.13931746970812653</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0010586974240923697</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.037601869744221604</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
@@ -1869,10 +2145,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.021195554425313064</v>
@@ -1881,15 +2160,18 @@
         <v>0.31235811707399985</v>
       </c>
       <c r="D2" t="n">
+        <v>0.07601863426123845</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04494560586279574</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.13102826240640297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.021580893916663596</v>
@@ -1898,15 +2180,18 @@
         <v>0.35618785331392855</v>
       </c>
       <c r="D3" t="n">
+        <v>0.09576374908506924</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.06825156942665439</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08892620919440208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.021320548529403495</v>
@@ -1915,15 +2200,18 @@
         <v>0.3766970421475293</v>
       </c>
       <c r="D4" t="n">
+        <v>0.11997053105920907</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05481878850232719</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.021337820209044234</v>
@@ -1932,15 +2220,18 @@
         <v>0.38514786643152665</v>
       </c>
       <c r="D5" t="n">
+        <v>0.12935848502458858</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.0484747471553307</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.021273747082281514</v>
@@ -1949,15 +2240,18 @@
         <v>0.38191996454968047</v>
       </c>
       <c r="D6" t="n">
+        <v>0.1290814196476472</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.036252920459396</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02130765122493257</v>
@@ -1966,9 +2260,12 @@
         <v>0.38201433416412867</v>
       </c>
       <c r="D7" t="n">
+        <v>0.12949034920044677</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03592302766031999</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
@@ -1999,10 +2296,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.032577393476115886</v>
@@ -2011,15 +2311,18 @@
         <v>-0.015413126781091968</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.02101468759702274</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03192848271250758</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05354076692802945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03241892242656366</v>
@@ -2028,15 +2331,18 @@
         <v>0.003367199292240386</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.020821205945001697</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03259920485906973</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.031562716586088065</v>
@@ -2045,15 +2351,18 @@
         <v>0.04542266917182314</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.018228510776785445</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.034166574122387876</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.038258712117088756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.031394103337187645</v>
@@ -2062,15 +2371,18 @@
         <v>0.053061229785180686</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.0168854337933928</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03342415765211757</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03633192924739248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.031408278817424654</v>
@@ -2079,15 +2391,18 @@
         <v>0.054313662825417275</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01634017788127906</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.033381598972364444</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03440142671733071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03141782400661407</v>
@@ -2096,9 +2411,12 @@
         <v>0.05460054699235162</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01592653739624761</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03329616072269762</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06391332574365371</v>
       </c>
     </row>
@@ -2129,10 +2447,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.017481380436008817</v>
@@ -2141,15 +2462,18 @@
         <v>-0.1283727757636061</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.004494353457985989</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.011585355961637851</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07788653865707484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.018684543095586436</v>
@@ -2158,15 +2482,18 @@
         <v>-0.12033592783839545</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.006256415965997464</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.00931199420016628</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.017146158834973946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.018270251594321343</v>
@@ -2175,15 +2502,18 @@
         <v>-0.12666338966307292</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.004091462235583432</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02044204219206059</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03246719013750443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.01852594490665966</v>
@@ -2192,15 +2522,18 @@
         <v>-0.12820369122956338</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.003235318263216991</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.014363531287179515</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.009950330853165212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.018447184591548677</v>
@@ -2209,15 +2542,18 @@
         <v>-0.12848227402675333</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.0027617861664368526</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.017168743456215444</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.019241766289566076</v>
@@ -2226,9 +2562,12 @@
         <v>-0.12947855887775647</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.0022449537984223777</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.011575100035962646</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343610971</v>
       </c>
     </row>
@@ -2259,10 +2598,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0220081570526014</v>
@@ -2271,15 +2613,18 @@
         <v>0.3347695161241269</v>
       </c>
       <c r="D2" t="n">
+        <v>0.0961993737198179</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.028637473010530226</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.04499736593073589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.020234138099475333</v>
@@ -2288,15 +2633,18 @@
         <v>0.34336382546434474</v>
       </c>
       <c r="D3" t="n">
+        <v>0.097263698351302</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.004783670397678883</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.10165365372649937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02399204325397967</v>
@@ -2305,15 +2653,18 @@
         <v>0.2878713214996777</v>
       </c>
       <c r="D4" t="n">
+        <v>0.0635797274274017</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05325521488749768</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08525984395082276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02408154939481429</v>
@@ -2322,15 +2673,18 @@
         <v>0.30298458346448376</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07430688137517971</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04991396770050121</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.08434114843374996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.024308141710530785</v>
@@ -2339,15 +2693,18 @@
         <v>0.3148148677095728</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08220756889434366</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05085998919717522</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08434114843375173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.024528376876184695</v>
@@ -2356,9 +2713,12 @@
         <v>0.32572203956546675</v>
       </c>
       <c r="D7" t="n">
+        <v>0.08969497757382838</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.052000147763320084</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.07973496801885283</v>
       </c>
     </row>
@@ -2389,10 +2749,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.043922915833074436</v>
@@ -2401,15 +2764,18 @@
         <v>0.0685363007381159</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.015651263368739565</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.049450910131184515</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.059211859631845165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.043963247252609215</v>
@@ -2418,15 +2784,18 @@
         <v>0.07202875315279011</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.014550256997590827</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04822820367374905</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04497336564272647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04392024579195499</v>
@@ -2435,15 +2804,18 @@
         <v>0.0715623869232902</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.014195878416750629</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04713864718532239</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0573250666192715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.044114679146607896</v>
@@ -2452,15 +2824,18 @@
         <v>0.07159507277229427</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.013791939526280217</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.048218871462891257</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05259245011916924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04417322453893114</v>
@@ -2469,15 +2844,18 @@
         <v>0.07212919970273002</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01330147826239858</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.047966675876432566</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.055434706888101815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04428656395418504</v>
@@ -2486,9 +2864,12 @@
         <v>0.07268345305279422</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.012830539222545179</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04831574986978179</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343611415</v>
       </c>
     </row>
@@ -2519,10 +2900,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.045198997194977386</v>
@@ -2531,15 +2915,18 @@
         <v>0.06696009816799009</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.016677091575392877</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.049163829128635046</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04549132864069846</v>
@@ -2548,15 +2935,18 @@
         <v>0.06819177292041423</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.016070928283490105</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05004133140539367</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05826890812397867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04560757588480623</v>
@@ -2565,15 +2955,18 @@
         <v>0.06912770479648889</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.015508295614758305</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04963557176441436</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.017839918128327525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04508946354873659</v>
@@ -2582,15 +2975,18 @@
         <v>0.06719745974215285</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01539585377123509</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04628826072896818</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04465478841796708</v>
@@ -2599,15 +2995,18 @@
         <v>0.07007164422378287</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.014584900061753947</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04679402001160214</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02469261259037392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04413749815013516</v>
@@ -2616,9 +3015,12 @@
         <v>0.07234722602120647</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01388616274134602</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04592394017426503</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.02371652661731538</v>
       </c>
     </row>
@@ -2649,10 +3051,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>-6.957397314906193E-4</v>
@@ -2661,15 +3066,18 @@
         <v>0.5614783959548146</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3001695525836443</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.032550440236099945</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0788111804242897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>2.32361070668579E-4</v>
@@ -2678,15 +3086,18 @@
         <v>0.5629290453453798</v>
       </c>
       <c r="D3" t="n">
+        <v>0.30169794425897045</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04459746362945646</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07696104113612456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>8.674714529544405E-4</v>
@@ -2695,15 +3106,18 @@
         <v>0.5642383426951125</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3035691164781398</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.044291841755691744</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.08342160813907906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0016183301659876608</v>
@@ -2712,15 +3126,18 @@
         <v>0.5657501354700161</v>
       </c>
       <c r="D5" t="n">
+        <v>0.3054474694380842</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.048814116271798234</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.006975613736424968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>8.334460757391453E-4</v>
@@ -2729,15 +3146,18 @@
         <v>0.5640349643709547</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3048364811127774</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.004767936121029144</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>7.451789560791557E-4</v>
@@ -2746,9 +3166,12 @@
         <v>0.5640246597200023</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3050838894962169</v>
+      </c>
+      <c r="E7" t="n">
         <v>7.451789560791557E-4</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.016129381929887998</v>
       </c>
     </row>
@@ -2779,10 +3202,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0049206821852115</v>
@@ -2791,15 +3217,18 @@
         <v>0.2618475656206432</v>
       </c>
       <c r="D2" t="n">
+        <v>0.04851092759614406</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.01769626789920977</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.9702190738997145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>-0.014354765700717467</v>
@@ -2808,15 +3237,18 @@
         <v>0.18380016285203218</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.00821442364573044</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.19268118948563284</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.7153977894947663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>-0.004191639289648689</v>
@@ -2825,15 +3257,18 @@
         <v>-0.40595636534235724</v>
       </c>
       <c r="D4" t="n">
+        <v>0.10388161047682543</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.2946119256869008</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.14618251017808248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>-0.001392967882709219</v>
@@ -2842,15 +3277,18 @@
         <v>-0.3527881434897324</v>
       </c>
       <c r="D5" t="n">
+        <v>0.10560927611675286</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05017848849368541</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.27443684570175986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>-0.007477546607007462</v>
@@ -2859,15 +3297,18 @@
         <v>-0.3295227806864512</v>
       </c>
       <c r="D6" t="n">
+        <v>0.08723953432173004</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.082955645911455</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.10758521067993776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>-0.010840526202434085</v>
@@ -2876,9 +3317,12 @@
         <v>-0.3051035811716616</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07519989504326796</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02198410685712262</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.030459207484708095</v>
       </c>
     </row>
@@ -2909,10 +3353,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.015809547469651377</v>
@@ -2921,15 +3368,18 @@
         <v>0.5411739377985261</v>
       </c>
       <c r="D2" t="n">
+        <v>0.27908289615418547</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03390357690365213</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03825871211709142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.01589640270410093</v>
@@ -2938,15 +3388,18 @@
         <v>0.5411814417329199</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2793806720649782</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0366013076864732</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.016163597147740766</v>
@@ -2955,15 +3408,18 @@
         <v>0.5414569823149815</v>
       </c>
       <c r="D4" t="n">
+        <v>0.2796968566887539</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.043611737849168955</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0165417602930891</v>
@@ -2972,15 +3428,18 @@
         <v>0.5429021402186389</v>
       </c>
       <c r="D5" t="n">
+        <v>0.2808107506883216</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05225806543131929</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04688358589885144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.016462184781512176</v>
@@ -2989,15 +3448,18 @@
         <v>0.5422606840392366</v>
       </c>
       <c r="D6" t="n">
+        <v>0.28137460452780083</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.041885310141235664</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.016253930397202528</v>
@@ -3006,9 +3468,12 @@
         <v>0.5416766592392659</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2811436282944949</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.032265243646516714</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.007024614936964824</v>
       </c>
     </row>
@@ -3039,10 +3504,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.018305552467435825</v>
@@ -3051,15 +3519,18 @@
         <v>-0.05159521236619531</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.018564229991095527</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.018150998545478386</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.014888612493750841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.018231055757417916</v>
@@ -3068,15 +3539,18 @@
         <v>-0.051064844700881115</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.018171402562179972</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.017470771072612933</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241545834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.01847399085092855</v>
@@ -3085,15 +3559,18 @@
         <v>-0.05140499855702478</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.01771601594256511</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.016954520664354506</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.018571567068035748</v>
@@ -3102,15 +3579,18 @@
         <v>-0.05062912360690425</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01738605020237216</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.017420286771499843</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03246719013749999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.01884043546109199</v>
@@ -3119,15 +3599,18 @@
         <v>-0.049780593482458835</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.017087095469615843</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.017224199467339406</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03052920503482426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.01904799292738314</v>
@@ -3136,9 +3619,12 @@
         <v>-0.04762238802313232</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.016923188611552176</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.01759411927917697</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.041141943331173714</v>
       </c>
     </row>
@@ -3169,10 +3655,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04469973372505606</v>
@@ -3181,15 +3670,18 @@
         <v>-0.09355207834056023</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012311453664107574</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03845759927301119</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04783732941415941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.044809957127861295</v>
@@ -3198,15 +3690,18 @@
         <v>-0.09168825335740638</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01218463895592925</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.04042383594859414</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.018821754240588184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04443033349850947</v>
@@ -3215,15 +3710,18 @@
         <v>-0.09274374664861917</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.011593923400732065</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.042684733491737785</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05069311431551782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04464227375088196</v>
@@ -3232,15 +3730,18 @@
         <v>-0.09414997647924817</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.010890799585176802</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.039869518230416116</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.055434706888100926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04488890198597807</v>
@@ -3249,15 +3750,18 @@
         <v>-0.09301274729980902</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.010729444343011041</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03973276760255616</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04471901269454127</v>
@@ -3266,9 +3770,12 @@
         <v>-0.09432194164164831</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01010291528599927</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0421142965212328</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.024692612590371255</v>
       </c>
     </row>
@@ -3299,10 +3806,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04097139127444252</v>
@@ -3311,15 +3821,18 @@
         <v>-0.15545056368807347</v>
       </c>
       <c r="D2" t="n">
+        <v>0.003553468576754093</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03279586525768036</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03149866705937132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.040950718782100375</v>
@@ -3328,15 +3841,18 @@
         <v>-0.15560164525204323</v>
       </c>
       <c r="D3" t="n">
+        <v>0.004083914214856765</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03604947436441586</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>-0.008032171697265333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.040052776029522535</v>
@@ -3345,15 +3861,18 @@
         <v>-0.15463691535196422</v>
       </c>
       <c r="D4" t="n">
+        <v>0.003892866151493868</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.041294846284365</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03952351303519446</v>
@@ -3362,15 +3881,18 @@
         <v>-0.1495655972213601</v>
       </c>
       <c r="D5" t="n">
+        <v>0.0029724900691916467</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03612246808609534</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04019502531614055</v>
@@ -3379,15 +3901,18 @@
         <v>-0.1518293936452373</v>
       </c>
       <c r="D6" t="n">
+        <v>0.003908674661379119</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.029922453743505113</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04051078979582374</v>
@@ -3396,9 +3921,12 @@
         <v>-0.14575163157251003</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0025164439542355588</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03201800136680555</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
@@ -3429,10 +3957,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03714990475489898</v>
@@ -3441,15 +3972,18 @@
         <v>-0.059103323336885616</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01744894518048201</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03437892901832662</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04592893188840019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03735639599375862</v>
@@ -3458,15 +3992,18 @@
         <v>-0.0584435746728762</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.017092934695100315</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03467214503329345</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.056380333436107044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.03774114383825607</v>
@@ -3475,15 +4012,18 @@
         <v>-0.05734759550153934</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.016816594964007114</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03450786728212028</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03811435959277533</v>
@@ -3492,15 +4032,18 @@
         <v>-0.05464480898266161</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.016744659841992915</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03487873883368493</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.038392264005103684</v>
@@ -3509,15 +4052,18 @@
         <v>-0.05222746563803393</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.016633585430343656</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.035546484180501096</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.013902905168992064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03806939646077346</v>
@@ -3526,9 +4072,12 @@
         <v>-0.054257290863459706</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.01602701232317494</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03731506249117236</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.019802627296178876</v>
       </c>
     </row>
@@ -3559,10 +4108,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.050387268185144975</v>
@@ -3571,15 +4123,18 @@
         <v>0.12142147915830392</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.00562178656946033</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.0556156150872335</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.040181789632828924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.049937078818609044</v>
@@ -3588,15 +4143,18 @@
         <v>0.12394467080297655</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.004553349012953012</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05491739750692448</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04931158427809846</v>
@@ -3605,15 +4163,18 @@
         <v>0.12794697391843224</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.0031247085468679714</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05371314272505797</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03343477608623946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04862882398088208</v>
@@ -3622,15 +4183,18 @@
         <v>0.13323564607397165</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.0012865194631650478</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.053083527974070774</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.03633192924738893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04806779863752631</v>
@@ -3639,15 +4203,18 @@
         <v>0.13769360635285066</v>
       </c>
       <c r="D6" t="n">
+        <v>3.907928849841147E-4</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.0530704730013559</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.034401426717331596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04749263760328917</v>
@@ -3656,9 +4223,12 @@
         <v>0.14189549155225034</v>
       </c>
       <c r="D7" t="n">
+        <v>0.0019684940359468994</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05237404495744366</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -3689,10 +4259,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.06293812262905044</v>
@@ -3701,15 +4274,18 @@
         <v>-0.21323105196296654</v>
       </c>
       <c r="D2" t="n">
+        <v>0.026554114364668924</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.054985503214367945</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.06281686705659896</v>
@@ -3718,15 +4294,18 @@
         <v>-0.21253637313865248</v>
       </c>
       <c r="D3" t="n">
+        <v>0.02677212312854449</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.052042736396875885</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.029558802241549387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.06237232383709707</v>
@@ -3735,15 +4314,18 @@
         <v>-0.21246413150285948</v>
       </c>
       <c r="D4" t="n">
+        <v>0.026860418651671103</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05609213859058151</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04401688541676929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.06198923200857237</v>
@@ -3752,15 +4334,18 @@
         <v>-0.20947962821785215</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02614471187981282</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.05276859121615974</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.02664193094642009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.06139685555991876</v>
@@ -3769,15 +4354,18 @@
         <v>-0.20750815601081474</v>
       </c>
       <c r="D6" t="n">
+        <v>0.02534918354871396</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.055868437596659666</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.061015678820812</v>
@@ -3786,9 +4374,12 @@
         <v>-0.2042733802948522</v>
       </c>
       <c r="D7" t="n">
+        <v>0.02457925666961469</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05202420084667626</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.011928570865274324</v>
       </c>
     </row>
@@ -3819,10 +4410,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02942175709354323</v>
@@ -3831,15 +4425,18 @@
         <v>0.44214236194129897</v>
       </c>
       <c r="D2" t="n">
+        <v>0.18101822801967926</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05809511916912992</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06859279146560748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.029590849373198225</v>
@@ -3848,15 +4445,18 @@
         <v>0.44294897308420933</v>
       </c>
       <c r="D3" t="n">
+        <v>0.182026386394191</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.05997395591386838</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06952606264861139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.029731843318162275</v>
@@ -3865,15 +4465,18 @@
         <v>0.4438566917152966</v>
       </c>
       <c r="D4" t="n">
+        <v>0.1832115278837615</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.06059145147336538</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.06859279146561104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.029845450448990198</v>
@@ -3882,15 +4485,18 @@
         <v>0.4446405783724412</v>
       </c>
       <c r="D5" t="n">
+        <v>0.18434038973307065</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.06034458891843974</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07138999608667174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.030001876611513247</v>
@@ -3899,15 +4505,18 @@
         <v>0.44564613306409395</v>
       </c>
       <c r="D6" t="n">
+        <v>0.18551628955364463</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.061816552306999305</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06391332574365638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.030029362342439306</v>
@@ -3916,9 +4525,12 @@
         <v>0.4458640432432286</v>
       </c>
       <c r="D7" t="n">
+        <v>0.18630895493220023</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05852601617562747</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
@@ -3949,10 +4561,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02544617799515243</v>
@@ -3961,15 +4576,18 @@
         <v>0.3606392103672311</v>
       </c>
       <c r="D2" t="n">
+        <v>0.11582625795194579</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04646023100994355</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02544126090631281</v>
@@ -3978,15 +4596,18 @@
         <v>0.36247914617209664</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11875530381060562</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.043471731905159176</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04974209189481282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.025488444274754423</v>
@@ -3995,15 +4616,18 @@
         <v>0.36444351763800586</v>
       </c>
       <c r="D4" t="n">
+        <v>0.12070577640891056</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04361662721957295</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.025568403170445727</v>
@@ -4012,15 +4636,18 @@
         <v>0.3677724231046895</v>
       </c>
       <c r="D5" t="n">
+        <v>0.12322349726051285</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.045607655102945746</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.062035390919452205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02560380160469828</v>
@@ -4029,15 +4656,18 @@
         <v>0.37479786048800534</v>
       </c>
       <c r="D6" t="n">
+        <v>0.12801658198853272</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.048854533395846</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.025548854891919867</v>
@@ -4046,9 +4676,12 @@
         <v>0.380601747407844</v>
       </c>
       <c r="D7" t="n">
+        <v>0.13373485855060308</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.047726103143451916</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
@@ -4079,10 +4712,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0185935618447393</v>
@@ -4091,15 +4727,18 @@
         <v>0.06208996271704187</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.017407514725686246</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.023601608035928028</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.018582100893385193</v>
@@ -4108,15 +4747,18 @@
         <v>0.06180459609451326</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01692178468673977</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.019987505700930924</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.11154137473290593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.020352503587210382</v>
@@ -4125,15 +4767,18 @@
         <v>0.063024346828279</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.016518566352001773</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02738232587408008</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02056782548369052</v>
@@ -4142,15 +4787,18 @@
         <v>0.07441151836925775</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.014363771007633419</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.02441067687601642</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07232066157962702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02130753660151785</v>
@@ -4159,15 +4807,18 @@
         <v>0.08167250263640968</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.012876852182895249</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.02721414602504683</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02145878175992921</v>
@@ -4176,9 +4827,12 @@
         <v>0.08469265995821079</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.0119134239497527</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02478048828233861</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04879016416943038</v>
       </c>
     </row>
@@ -4209,10 +4863,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.026655011063845387</v>
@@ -4221,15 +4878,18 @@
         <v>0.3004619540799679</v>
       </c>
       <c r="D2" t="n">
+        <v>0.07084725256585955</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04922194901323859</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02663315915558401</v>
@@ -4238,15 +4898,18 @@
         <v>0.3003030448614775</v>
       </c>
       <c r="D3" t="n">
+        <v>0.07153892220735025</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.040998854836698136</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.026653448627403493</v>
@@ -4255,15 +4918,18 @@
         <v>0.30033887489185196</v>
       </c>
       <c r="D4" t="n">
+        <v>0.07197560050893614</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03929806846446413</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05259245011917102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.026901693103690505</v>
@@ -4272,15 +4938,18 @@
         <v>0.30053895028070277</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07241713734116029</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.042707772855196384</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.061095099359810945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02721735105226922</v>
@@ -4289,15 +4958,18 @@
         <v>0.30137595998763494</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07320953976980049</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.045629945272372185</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0266419309464192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.026915611581881212</v>
@@ -4306,9 +4978,12 @@
         <v>0.30005617562502895</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07285547472770482</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.034909687492929865</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.016129381929883557</v>
       </c>
     </row>
@@ -4339,10 +5014,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03396640013012867</v>
@@ -4351,15 +5029,18 @@
         <v>0.004991619074509401</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.021251238951315754</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03407013864912892</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03383321516257549</v>
@@ -4368,15 +5049,18 @@
         <v>0.006252662738488457</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.020793429584790912</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.034018036383945544</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0341261093458282</v>
@@ -4385,15 +5069,18 @@
         <v>0.005056906740408262</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.02038215084523287</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03436319526737461</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0695260626486105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03448297545326027</v>
@@ -4402,15 +5089,18 @@
         <v>0.014387473503478798</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01979405521604316</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.035483279837418356</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06203539091945309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.034328127790310976</v>
@@ -4419,15 +5109,18 @@
         <v>0.03318376589773031</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01850090493457346</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03638669567995629</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03433552051047878</v>
@@ -4436,9 +5129,12 @@
         <v>0.024810675016400996</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.018605729447621844</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03485114933615209</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
@@ -4469,10 +5165,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03945438678575369</v>
@@ -4481,15 +5180,18 @@
         <v>-0.061599772350456355</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.017375488199116162</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03511416146483939</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07510747248680527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04019156010520536</v>
@@ -4498,15 +5200,18 @@
         <v>-0.05984246097361613</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.017154045625619174</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03569694411408677</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.08434114843375085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.041058946893622106</v>
@@ -4515,15 +5220,18 @@
         <v>-0.0574714223020929</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.017018588514681854</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03621174113454251</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.041224371100797366</v>
@@ -4532,15 +5240,18 @@
         <v>-0.05689756504483815</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.016669888255529175</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.038611126711237224</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.07325046173959393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04186421835675257</v>
@@ -4549,15 +5260,18 @@
         <v>-0.056531866045635336</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.016326129941767853</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.037723233065908905</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04266463471972779</v>
@@ -4566,9 +5280,12 @@
         <v>-0.05444006784395138</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.016191584323557162</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03802308303068024</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
@@ -4599,10 +5316,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01976519151033411</v>
@@ -4611,15 +5331,18 @@
         <v>0.5715529706857095</v>
       </c>
       <c r="D2" t="n">
+        <v>0.31468036198052785</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05683095739146774</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.019550389119761997</v>
@@ -4628,15 +5351,18 @@
         <v>0.5701585834051845</v>
       </c>
       <c r="D3" t="n">
+        <v>0.31407812503909815</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.044101126632680815</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.030529205034822482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.019283122612819798</v>
@@ -4645,15 +5371,18 @@
         <v>0.5701850469244433</v>
       </c>
       <c r="D4" t="n">
+        <v>0.31409605744015545</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03669041881816601</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04688358589884967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.019505618187326386</v>
@@ -4662,15 +5391,18 @@
         <v>0.5695725573884155</v>
       </c>
       <c r="D5" t="n">
+        <v>0.31389972810394606</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04620922210727364</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.06297479916139004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.019809607597339778</v>
@@ -4679,15 +5411,18 @@
         <v>0.5698576549505429</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3139629770219733</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05569627896843092</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.019542186505937233</v>
@@ -4696,9 +5431,12 @@
         <v>0.5681779502366173</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3127703557490832</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04073282903407659</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04018178963282715</v>
       </c>
     </row>
@@ -4729,10 +5467,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.035480005817469365</v>
@@ -4741,15 +5482,18 @@
         <v>-0.3511931632900916</v>
       </c>
       <c r="D2" t="n">
+        <v>0.10427526560128919</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.021031236595092782</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.017839918128331966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.03543521145925214</v>
@@ -4758,15 +5502,18 @@
         <v>-0.3519144962895231</v>
       </c>
       <c r="D3" t="n">
+        <v>0.1054741229602092</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.029157085657273863</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.035754521026141656</v>
@@ -4775,15 +5522,18 @@
         <v>-0.35369629760856763</v>
       </c>
       <c r="D4" t="n">
+        <v>0.10672291084882712</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.020524539027066482</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.03592869803830362</v>
@@ -4792,15 +5542,18 @@
         <v>-0.3502040885820191</v>
       </c>
       <c r="D5" t="n">
+        <v>0.10499630185989473</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.023881177748838765</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03618518818904423</v>
@@ -4809,15 +5562,18 @@
         <v>-0.3482906319662047</v>
       </c>
       <c r="D6" t="n">
+        <v>0.10375470820659183</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.022190247284291916</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.0367196014092085</v>
@@ -4826,9 +5582,12 @@
         <v>-0.34009225763026724</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09642485569026116</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.015302359788599909</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06485097231961667</v>
       </c>
     </row>
@@ -4859,10 +5618,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04188712013746137</v>
@@ -4871,15 +5633,18 @@
         <v>0.052007577295698215</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.018386266509853533</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04491754488065499</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07603468627599774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.042398956720263635</v>
@@ -4888,15 +5653,18 @@
         <v>0.05462760599105454</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01765885679748247</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.046552549603802285</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06391332574365283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04261093928893976</v>
@@ -4905,15 +5673,18 @@
         <v>0.057625288708880396</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.01686342994580703</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04629396313726247</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04278567717363471</v>
@@ -4922,15 +5693,18 @@
         <v>0.058909771898343566</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.0162920149727388</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04621828525998362</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0324671901374991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.042571960309859644</v>
@@ -4939,15 +5713,18 @@
         <v>0.05785905448829931</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01603137450117509</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04445048123310718</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.034401426717336925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.042361374493497125</v>
@@ -4956,9 +5733,12 @@
         <v>0.05842436601469336</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.015585370637040574</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04437125603945847</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.0440168854167684</v>
       </c>
     </row>
@@ -4989,10 +5769,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.021579410295774298</v>
@@ -5001,15 +5784,18 @@
         <v>0.0313057077613452</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.02028083763742683</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02322585416965822</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.04688358589884878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.021964027684852387</v>
@@ -5018,15 +5804,18 @@
         <v>0.03530006116720358</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.019565327317461412</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.023619021134819593</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.14149956227370009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.023917558707206202</v>
@@ -5035,15 +5824,18 @@
         <v>0.051099085741451195</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.017932721128286033</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.031148056972207815</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.1881379421153948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02459251580220318</v>
@@ -5052,15 +5844,18 @@
         <v>0.14510353841934645</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.0010566142962524783</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.051891996914081154</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0449733656427318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02460253922626027</v>
@@ -5069,15 +5864,18 @@
         <v>0.14008611727110665</v>
       </c>
       <c r="D6" t="n">
+        <v>3.856558458846804E-4</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.030902683399764357</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.22941316432780567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.020337075686848193</v>
@@ -5086,9 +5884,12 @@
         <v>0.12048792415426332</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.007803713251345767</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.0073044402566700035</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06109509935981183</v>
       </c>
     </row>
@@ -5119,10 +5920,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.020497887627374017</v>
@@ -5131,15 +5935,18 @@
         <v>0.09448059206931814</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012095503752804992</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.022922991537264896</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.1131686981056399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.017804664245545183</v>
@@ -5148,15 +5955,18 @@
         <v>0.09314297890821707</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.012271222553071448</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.00726379458482118</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0119285708652761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.01792159867229829</v>
@@ -5165,15 +5975,18 @@
         <v>0.09178472881134223</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.011759685001616393</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.019016459314274536</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0276151670329714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.01808932266661702</v>
@@ -5182,15 +5995,18 @@
         <v>0.0916577532193486</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.011379208497569016</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.020620466831636205</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.018362165724290808</v>
@@ -5199,15 +6015,18 @@
         <v>0.09194494500194822</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.010939338098593598</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.021613995819286632</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.018607429911453668</v>
@@ -5216,9 +6035,12 @@
         <v>0.09243843028269438</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.010471443590961638</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.021876713171355228</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03149866705937043</v>
       </c>
     </row>
@@ -5249,10 +6071,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01609919859504251</v>
@@ -5261,15 +6086,18 @@
         <v>0.4788822263574417</v>
       </c>
       <c r="D2" t="n">
+        <v>0.21321300853420844</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.030254383620932468</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.016147180024233543</v>
@@ -5278,15 +6106,18 @@
         <v>0.47876268717849646</v>
       </c>
       <c r="D3" t="n">
+        <v>0.2134424341184653</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.031691259219598644</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0159657976237863</v>
@@ -5295,15 +6126,18 @@
         <v>0.47833565340801276</v>
       </c>
       <c r="D4" t="n">
+        <v>0.21269864586855092</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.026375095014229417</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.024692612590372143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0159172541559224</v>
@@ -5312,15 +6146,18 @@
         <v>0.478857712030782</v>
       </c>
       <c r="D5" t="n">
+        <v>0.21391203268435188</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.027741502125010482</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.015642072079566458</v>
@@ -5329,15 +6166,18 @@
         <v>0.4811179501789409</v>
       </c>
       <c r="D6" t="n">
+        <v>0.21524081293429997</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.023752333688489963</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.012916225266547343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.015289202756037276</v>
@@ -5346,9 +6186,12 @@
         <v>0.48608710624240614</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2195402007927847</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.021567613319428323</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.002995508979797279</v>
       </c>
     </row>
@@ -5379,10 +6222,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.028221105586658097</v>
@@ -5391,15 +6237,18 @@
         <v>0.2961107167508301</v>
       </c>
       <c r="D2" t="n">
+        <v>0.06926367934828015</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.038407736709178575</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.020202707317519497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02697354349024651</v>
@@ -5408,15 +6257,18 @@
         <v>0.298042761192961</v>
       </c>
       <c r="D3" t="n">
+        <v>0.06858082725814096</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.02095227281775976</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.004987541511038529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.026415285921047735</v>
@@ -5425,15 +6277,18 @@
         <v>0.30452314164778094</v>
       </c>
       <c r="D4" t="n">
+        <v>0.07445294889802534</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02793410773108791</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.026832046523468083</v>
@@ -5442,15 +6297,18 @@
         <v>0.3011398896425276</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07339753217286993</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03979897642765088</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.026641930946420977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.026603361060706578</v>
@@ -5459,15 +6317,18 @@
         <v>0.3006157489391347</v>
       </c>
       <c r="D6" t="n">
+        <v>0.07336772788048085</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03461234508534963</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02688394793337251</v>
@@ -5476,9 +6337,12 @@
         <v>0.2996545948460998</v>
       </c>
       <c r="D7" t="n">
+        <v>0.07312509515434717</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04121862349749239</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
@@ -5509,10 +6373,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.01930240531152792</v>
@@ -5521,15 +6388,18 @@
         <v>0.5590784180596327</v>
       </c>
       <c r="D2" t="n">
+        <v>0.32390251504828993</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.053985053530487145</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.07603468627599685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.018682996890686098</v>
@@ -5538,15 +6408,18 @@
         <v>0.5847361751976745</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3407890985981269</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.06314322852606762</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.01942969644859235</v>
@@ -5555,15 +6428,18 @@
         <v>0.5607065024012883</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3330629708481476</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04732041081705732</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.019485992718032384</v>
@@ -5572,15 +6448,18 @@
         <v>0.5699258027851268</v>
       </c>
       <c r="D5" t="n">
+        <v>0.33108129113750306</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.059642089175945066</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0676586484738193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.019157793178183787</v>
@@ -5589,15 +6468,18 @@
         <v>0.581156405079776</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3486438033150224</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05847805009778488</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.06765864847381131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.018852656737035404</v>
@@ -5606,9 +6488,12 @@
         <v>0.592166859748521</v>
       </c>
       <c r="D7" t="n">
+        <v>0.36339143184421885</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05891786613860131</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.06765864847381486</v>
       </c>
     </row>
@@ -5639,10 +6524,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.030015909524611084</v>
@@ -5651,15 +6539,18 @@
         <v>0.0957237769668563</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01154900675961823</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.03377026432297703</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.047837329414158525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.030285145780122823</v>
@@ -5668,15 +6559,18 @@
         <v>0.09606971093175187</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.011050675810001742</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03488086418868802</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.030489539693880074</v>
@@ -5685,15 +6579,18 @@
         <v>0.09694797033674585</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.010450933673126661</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03503480818888211</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.03922071315328246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.030560197804024445</v>
@@ -5702,15 +6599,18 @@
         <v>0.09722540482210923</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.009983651085993861</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03437344751776416</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.030975812168177026</v>
@@ -5719,15 +6619,18 @@
         <v>0.09771599601640857</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.0095256708473197</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03657738814958585</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.031187769850008557</v>
@@ -5736,9 +6639,12 @@
         <v>0.09958119185425746</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.008753870964432586</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.036330464558475946</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
@@ -5769,10 +6675,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.03159259832834741</v>
@@ -5781,15 +6690,18 @@
         <v>0.6228568615737222</v>
       </c>
       <c r="D2" t="n">
+        <v>0.37617906530888057</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.08297905023515115</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.031096947396523862</v>
@@ -5798,15 +6710,18 @@
         <v>0.622874391295146</v>
       </c>
       <c r="D3" t="n">
+        <v>0.37488064503341756</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.06739115807567819</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.030334549016179203</v>
@@ -5815,15 +6730,18 @@
         <v>0.6265767856607254</v>
       </c>
       <c r="D4" t="n">
+        <v>0.3775490985031815</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.05791450759541775</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.10705907229340816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.0322629480634122</v>
@@ -5832,15 +6750,18 @@
         <v>0.6144964229429171</v>
       </c>
       <c r="D5" t="n">
+        <v>0.364637680665579</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.09805036503129869</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.0401817896328307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03195227904525543</v>
@@ -5849,15 +6770,18 @@
         <v>0.6049559379956011</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3503936209532811</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.05626049128292645</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.017146158834970393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02901487064020187</v>
@@ -5866,9 +6790,12 @@
         <v>0.6244114500926701</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3559498811240206</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.01830861273853876</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04210117601863672</v>
       </c>
     </row>
@@ -5899,10 +6826,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.05299603396579888</v>
@@ -5911,15 +6841,18 @@
         <v>-0.08514537926815491</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.013543851994423317</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05006691144058582</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.01918281941677158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.05073021665922254</v>
@@ -5928,15 +6861,18 @@
         <v>-0.06676233734742487</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.01647166901749597</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.052010906520399774</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03922071315327713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04977069469264435</v>
@@ -5945,15 +6881,18 @@
         <v>-0.051553232872445065</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.017586673213144</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.047748740134030083</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04928587084926724</v>
@@ -5962,15 +6901,18 @@
         <v>-0.049049055335069536</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.017461033885858734</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.047883683096248825</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.04860912998212169</v>
@@ -5979,15 +6921,18 @@
         <v>-0.042667562756217414</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.017689656229630257</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04743085810971888</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.010939940038332985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04739181232630681</v>
@@ -5996,9 +6941,12 @@
         <v>-0.03083731513837651</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.018246000450973687</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.0470544539477498</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.011928570865272548</v>
       </c>
     </row>
@@ -6029,10 +6977,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.020569759145421265</v>
@@ -6041,15 +6992,18 @@
         <v>0.62133246286068</v>
       </c>
       <c r="D2" t="n">
+        <v>0.3868436812503585</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.054425037504782066</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.08984070399979327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02120819650553211</v>
@@ -6058,15 +7012,18 @@
         <v>0.6226906790933504</v>
       </c>
       <c r="D3" t="n">
+        <v>0.3817612403841023</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.07715116548938807</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02139652399030314</v>
@@ -6075,15 +7032,18 @@
         <v>0.6041119176225664</v>
       </c>
       <c r="D4" t="n">
+        <v>0.36403625179904975</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04392735203105585</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.035367143837293114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02115167655400807</v>
@@ -6092,15 +7052,18 @@
         <v>0.6056573481306331</v>
       </c>
       <c r="D5" t="n">
+        <v>0.36580908591182204</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04257204710145768</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04974209189481371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.021360896703390288</v>
@@ -6109,15 +7072,18 @@
         <v>0.6042244989973502</v>
       </c>
       <c r="D6" t="n">
+        <v>0.3654645591571811</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.051416287257614254</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05069311431551515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.02134666715041838</v>
@@ -6126,9 +7092,12 @@
         <v>0.604240739425373</v>
       </c>
       <c r="D7" t="n">
+        <v>0.3657195862950954</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.05197751202820022</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
@@ -6159,10 +7128,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.02883114379605561</v>
@@ -6171,15 +7143,18 @@
         <v>0.040869582784318126</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.01963987126044886</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.032837741859732435</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.02887098719228713</v>
@@ -6188,15 +7163,18 @@
         <v>0.05412316911431203</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.017851926374240268</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03182006045914887</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.07325046173959215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02941260675775701</v>
@@ -6205,15 +7183,18 @@
         <v>0.06310251095205782</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.016399395838307074</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.034034894821922915</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02953441038726119</v>
@@ -6222,15 +7203,18 @@
         <v>0.06892096032824074</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.015156412888289283</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03296268312938741</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.029713713694222255</v>
@@ -6239,15 +7223,18 @@
         <v>0.0710063017088638</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.01446213281836628</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.03297495728905573</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.029649786225631986</v>
@@ -6256,9 +7243,12 @@
         <v>0.07045820086106824</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.014157304229992285</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.03166400700261123</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03536714383729134</v>
       </c>
     </row>
@@ -6289,10 +7279,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.013454475192062486</v>
@@ -6301,15 +7294,18 @@
         <v>0.38825353454809264</v>
       </c>
       <c r="D2" t="n">
+        <v>0.1281772255121192</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.05952911605511055</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.1432341680859066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.014479280142881404</v>
@@ -6318,15 +7314,18 @@
         <v>0.4177070886131555</v>
       </c>
       <c r="D3" t="n">
+        <v>0.14921402781812754</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.0743092074839728</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.13802129789737272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.015088885364637171</v>
@@ -6335,15 +7334,18 @@
         <v>0.4438997603852385</v>
       </c>
       <c r="D4" t="n">
+        <v>0.17300159389955794</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.07635650642934054</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.053540766928031225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.014874319678208027</v>
@@ -6352,15 +7354,18 @@
         <v>0.4354730273372586</v>
       </c>
       <c r="D5" t="n">
+        <v>0.17372819299474318</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.03818987953831636</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.014587129389900033</v>
@@ -6369,15 +7374,18 @@
         <v>0.4339516605085447</v>
       </c>
       <c r="D6" t="n">
+        <v>0.17312866024009033</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.023605746777741778</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.014458411092547306</v>
@@ -6386,9 +7394,12 @@
         <v>0.43409033256483154</v>
       </c>
       <c r="D7" t="n">
+        <v>0.17352605959925016</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02177592264599483</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.005982071677549605</v>
       </c>
     </row>
@@ -6419,10 +7430,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.0449701672316286</v>
@@ -6431,15 +7445,18 @@
         <v>-0.09446300767302218</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.012188028602923007</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04000212621247831</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.06391332574365194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04521731013249389</v>
@@ -6448,15 +7465,18 @@
         <v>-0.08883710848007587</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.012859303159613145</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.039539435080082654</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.06297479916138915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.045236343676414374</v>
@@ -6465,15 +7485,18 @@
         <v>-0.0782287603658618</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.014219066227184829</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.04030990320372979</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.04526133384970025</v>
@@ -6482,15 +7505,18 @@
         <v>-0.07145500695103202</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.01481239790097777</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04123267673212165</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.045267354961377196</v>
@@ -6499,15 +7525,18 @@
         <v>-0.07120941831874594</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.014436699449990487</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.042269354706555066</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.04519273157047727</v>
@@ -6516,9 +7545,12 @@
         <v>-0.07120107267485731</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.014064369886529926</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04246867022858186</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.05732506661927328</v>
       </c>
     </row>
@@ -6549,10 +7581,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.027357991019478178</v>
@@ -6561,15 +7596,18 @@
         <v>0.025911996298995627</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.020437415479677368</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.02832439925572504</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.0411419433311746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.027589818207083477</v>
@@ -6578,15 +7616,18 @@
         <v>0.02691382248165025</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.0199286222721744</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.028697105166448824</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.02777020039307771</v>
@@ -6595,15 +7636,18 @@
         <v>0.027960479200805244</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.019431363623488185</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.02886683032744079</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.04497336564273091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.028045210955225306</v>
@@ -6612,15 +7656,18 @@
         <v>0.029345106354341788</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.018925298639914656</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.029364959153123947</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.028307816993118663</v>
@@ -6629,15 +7676,18 @@
         <v>0.031306035012927086</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.018384922563188022</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.029745669742923208</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.03978087001184427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.027238690250317322</v>
@@ -6646,9 +7696,12 @@
         <v>0.02285307262178435</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.018599535047124638</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.02632957513897888</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.0060180723255607305</v>
       </c>
     </row>
@@ -6679,10 +7732,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.04441739826578278</v>
@@ -6691,15 +7747,18 @@
         <v>0.27189297036706894</v>
       </c>
       <c r="D2" t="n">
+        <v>0.055460684187491394</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.04846550734135271</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.03922071315328335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.04398634645015691</v>
@@ -6708,15 +7767,18 @@
         <v>0.27601807395932965</v>
       </c>
       <c r="D3" t="n">
+        <v>0.059479126085824396</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.054811972154037526</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.010939940038332097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.04260872683670696</v>
@@ -6725,15 +7787,18 @@
         <v>0.2847470988276406</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06330729842745997</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.045723843023970374</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.007968169649175572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.040869574125570414</v>
@@ -6742,15 +7807,18 @@
         <v>0.30211158296473073</v>
       </c>
       <c r="D5" t="n">
+        <v>0.07388706222446106</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.04327685047161437</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.005982071677548717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.03916371800641325</v>
@@ -6759,15 +7827,18 @@
         <v>0.31957369628712473</v>
       </c>
       <c r="D6" t="n">
+        <v>0.0851687196427715</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04107543076386202</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.03781212764577964</v>
@@ -6776,9 +7847,12 @@
         <v>0.33363340258286245</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09540551821062948</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.041462057064821756</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.03825871211709231</v>
       </c>
     </row>
@@ -6809,10 +7883,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>0.024395260396480337</v>
@@ -6821,15 +7898,18 @@
         <v>0.2805716853352246</v>
       </c>
       <c r="D2" t="n">
+        <v>0.05935603561021019</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.033776111871801406</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.040181789632833365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.024523194981627652</v>
@@ -6838,15 +7918,18 @@
         <v>0.2805770595098017</v>
       </c>
       <c r="D3" t="n">
+        <v>0.05974663858442453</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.03579728336264947</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.044016885416772844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.024672664910872513</v>
@@ -6855,15 +7938,18 @@
         <v>0.2809269359391504</v>
       </c>
       <c r="D4" t="n">
+        <v>0.06031130392430939</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.03703819366059118</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>0.05259245011917191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.02493754430419288</v>
@@ -6872,15 +7958,18 @@
         <v>0.2819447921524292</v>
       </c>
       <c r="D5" t="n">
+        <v>0.06115642741766658</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.039765711721829806</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.02519900343033894</v>
@@ -6889,15 +7978,18 @@
         <v>0.28399931937619693</v>
       </c>
       <c r="D6" t="n">
+        <v>0.06261982340598093</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.04147928333340669</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>0.05543470688810004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.025388447857846868</v>
@@ -6906,9 +7998,12 @@
         <v>0.286003087049817</v>
       </c>
       <c r="D7" t="n">
+        <v>0.06419242723525242</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.04124294515754523</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
